--- a/Timesheet-Groupe_8.xlsx
+++ b/Timesheet-Groupe_8.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="973" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Groupe" sheetId="1" state="visible" r:id="rId2"/>
@@ -28,34 +28,42 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Groupe!$B$1:$W$27</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Groupe!$B$1:$W$27</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0" vbProcedure="false">Groupe!$B$1:$W$27</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0" vbProcedure="false">Groupe!$B$1:$W$27</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="Z_DEF7657E_CF5E_43E5_870D_F4B63193E461_.wvu.Cols" vbProcedure="false">'Etudiant 1'!$A:$A</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">'Etudiant 1'!$B$1:$T$23</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area_0" vbProcedure="false">'Etudiant 1'!$B$1:$T$23</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area_0_0" vbProcedure="false">'Etudiant 1'!$B$1:$T$23</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="Z_DEF7657E_CF5E_43E5_870D_F4B63193E461_.wvu.Cols" vbProcedure="false">'Etudiant 2'!$A:$A</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area" vbProcedure="false">'Etudiant 2'!$B$1:$T$23</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area_0" vbProcedure="false">'Etudiant 2'!$B$1:$T$23</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area_0_0" vbProcedure="false">'Etudiant 2'!$B$1:$T$23</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="Z_DEF7657E_CF5E_43E5_870D_F4B63193E461_.wvu.Cols" vbProcedure="false">'Etudiant 3'!$A:$A</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area" vbProcedure="false">'Etudiant 3'!$B$1:$T$23</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area_0" vbProcedure="false">'Etudiant 3'!$B$1:$T$23</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area_0_0" vbProcedure="false">'Etudiant 3'!$B$1:$T$23</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="Z_DEF7657E_CF5E_43E5_870D_F4B63193E461_.wvu.Cols" vbProcedure="false">'Etudiant 4'!$A:$A</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm.Print_Area" vbProcedure="false">'Etudiant 4'!$B$1:$T$23</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm.Print_Area_0" vbProcedure="false">'Etudiant 4'!$B$1:$T$23</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm.Print_Area_0_0" vbProcedure="false">'Etudiant 4'!$B$1:$T$23</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="Z_DEF7657E_CF5E_43E5_870D_F4B63193E461_.wvu.Cols" vbProcedure="false">'Etudiant 5'!$A:$A</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm.Print_Area" vbProcedure="false">'Etudiant 5'!$B$1:$T$23</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm.Print_Area_0" vbProcedure="false">'Etudiant 5'!$B$1:$T$23</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm.Print_Area_0_0" vbProcedure="false">'Etudiant 5'!$B$1:$T$23</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="Z_DEF7657E_CF5E_43E5_870D_F4B63193E461_.wvu.Cols" vbProcedure="false">'Etudiant 6'!$A:$A</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area" vbProcedure="false">'Etudiant 6'!$B$1:$T$23</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area_0" vbProcedure="false">'Etudiant 6'!$B$1:$T$23</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area_0_0" vbProcedure="false">'Etudiant 6'!$B$1:$T$23</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="Z_DEF7657E_CF5E_43E5_870D_F4B63193E461_.wvu.Cols" vbProcedure="false">'Etudiant 7'!$A:$A</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_xlnm.Print_Area" vbProcedure="false">'Etudiant 7'!$B$1:$T$23</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_xlnm.Print_Area_0" vbProcedure="false">'Etudiant 7'!$B$1:$T$23</definedName>
+    <definedName function="false" hidden="false" localSheetId="7" name="_xlnm.Print_Area_0_0" vbProcedure="false">'Etudiant 7'!$B$1:$T$23</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="38">
   <si>
     <t>Date</t>
   </si>
@@ -63,16 +71,16 @@
     <t>Prévision (charge/semaine)</t>
   </si>
   <si>
-    <t>Restitution </t>
+    <t>Restitution</t>
   </si>
   <si>
-    <t>Etudes </t>
+    <t>Etudes</t>
   </si>
   <si>
-    <t>Réalisation </t>
+    <t>Réalisation</t>
   </si>
   <si>
-    <t>Validation </t>
+    <t>Validation</t>
   </si>
   <si>
     <t>Suivi</t>
@@ -96,7 +104,7 @@
     <t>Maquette</t>
   </si>
   <si>
-    <t>Déploiement </t>
+    <t>Déploiement</t>
   </si>
   <si>
     <t>Etudes des besoins</t>
@@ -108,7 +116,7 @@
     <t>Choix critères qualité</t>
   </si>
   <si>
-    <t>Conception / Modélisation </t>
+    <t>Conception / Modélisation</t>
   </si>
   <si>
     <t>Définition des plans de tests</t>
@@ -129,7 +137,7 @@
     <t>Documentation utilisateur</t>
   </si>
   <si>
-    <t>Tests unitaires </t>
+    <t>Tests unitaires</t>
   </si>
   <si>
     <t>Tests fonctionnels</t>
@@ -145,6 +153,9 @@
   </si>
   <si>
     <t>Nom du produit :</t>
+  </si>
+  <si>
+    <t>ProjetFramboise</t>
   </si>
   <si>
     <t>Nom :</t>
@@ -1334,19 +1345,19 @@
   <dimension ref="A1:W27"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="AB35" activeCellId="0" sqref="AB35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.8542510121457"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.4251012145749"/>
-    <col collapsed="false" hidden="false" max="20" min="4" style="0" width="6.57085020242915"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="10.5748987854251"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="14.7125506072875"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="31"/>
-    <col collapsed="false" hidden="false" max="1025" min="24" style="0" width="10.5748987854251"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.8520408163265"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.4234693877551"/>
+    <col collapsed="false" hidden="false" max="20" min="4" style="0" width="6.57142857142857"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="10.5765306122449"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="14.7142857142857"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="31.0051020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="24" style="0" width="10.5765306122449"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1569,7 +1580,7 @@
       </c>
       <c r="W4" s="29"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="21" t="n">
         <f aca="false">A4+7</f>
         <v>42261</v>
@@ -3253,7 +3264,9 @@
       <c r="B27" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="49"/>
+      <c r="C27" s="49" t="s">
+        <v>30</v>
+      </c>
       <c r="D27" s="49"/>
       <c r="E27" s="49"/>
       <c r="F27" s="49"/>
@@ -3561,9 +3574,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.8542510121457"/>
-    <col collapsed="false" hidden="false" max="19" min="3" style="0" width="6.57085020242915"/>
-    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="10.5748987854251"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.8520408163265"/>
+    <col collapsed="false" hidden="false" max="19" min="3" style="0" width="6.57142857142857"/>
+    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="10.5765306122449"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4294,10 +4307,10 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="48" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C23" s="49" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D23" s="49"/>
       <c r="E23" s="49"/>
@@ -4352,9 +4365,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.8542510121457"/>
-    <col collapsed="false" hidden="false" max="19" min="3" style="0" width="6.57085020242915"/>
-    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="10.5748987854251"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.8520408163265"/>
+    <col collapsed="false" hidden="false" max="19" min="3" style="0" width="6.57142857142857"/>
+    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="10.5765306122449"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5085,10 +5098,10 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="48" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C23" s="49" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D23" s="49"/>
       <c r="E23" s="49"/>
@@ -5143,9 +5156,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.8542510121457"/>
-    <col collapsed="false" hidden="false" max="19" min="3" style="0" width="6.57085020242915"/>
-    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="10.5748987854251"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.8520408163265"/>
+    <col collapsed="false" hidden="false" max="19" min="3" style="0" width="6.57142857142857"/>
+    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="10.5765306122449"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5876,10 +5889,10 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="48" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C23" s="49" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D23" s="49"/>
       <c r="E23" s="49"/>
@@ -5934,9 +5947,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.8542510121457"/>
-    <col collapsed="false" hidden="false" max="19" min="3" style="0" width="6.57085020242915"/>
-    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="10.5748987854251"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.8520408163265"/>
+    <col collapsed="false" hidden="false" max="19" min="3" style="0" width="6.57142857142857"/>
+    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="10.5765306122449"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6667,10 +6680,10 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="48" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C23" s="49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D23" s="49"/>
       <c r="E23" s="49"/>
@@ -6725,9 +6738,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.8542510121457"/>
-    <col collapsed="false" hidden="false" max="19" min="3" style="0" width="6.57085020242915"/>
-    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="10.5748987854251"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.8520408163265"/>
+    <col collapsed="false" hidden="false" max="19" min="3" style="0" width="6.57142857142857"/>
+    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="10.5765306122449"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7458,10 +7471,10 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="48" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C23" s="49" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D23" s="49"/>
       <c r="E23" s="49"/>
@@ -7516,9 +7529,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.8542510121457"/>
-    <col collapsed="false" hidden="false" max="19" min="3" style="0" width="6.57085020242915"/>
-    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="10.5748987854251"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.8520408163265"/>
+    <col collapsed="false" hidden="false" max="19" min="3" style="0" width="6.57142857142857"/>
+    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="10.5765306122449"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8249,10 +8262,10 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="48" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C23" s="49" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D23" s="49"/>
       <c r="E23" s="49"/>
@@ -8307,9 +8320,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.8542510121457"/>
-    <col collapsed="false" hidden="false" max="19" min="3" style="0" width="6.57085020242915"/>
-    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="10.5748987854251"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.8520408163265"/>
+    <col collapsed="false" hidden="false" max="19" min="3" style="0" width="6.57142857142857"/>
+    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="10.5765306122449"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9038,7 +9051,7 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="48" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C23" s="49"/>
       <c r="D23" s="49"/>

--- a/Timesheet-Groupe_8.xlsx
+++ b/Timesheet-Groupe_8.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="973" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Groupe" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,7 +15,7 @@
     <sheet name="Etudiant 4" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="Etudiant 5" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="Etudiant 6" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="Etudiant 7" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="Etudiant 7" sheetId="8" state="hidden" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">'Etudiant 1'!$B$1:$T$23</definedName>
@@ -29,41 +29,49 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Groupe!$B$1:$W$27</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0" vbProcedure="false">Groupe!$B$1:$W$27</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0" vbProcedure="false">Groupe!$B$1:$W$27</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0" vbProcedure="false">Groupe!$B$1:$W$27</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="Z_DEF7657E_CF5E_43E5_870D_F4B63193E461_.wvu.Cols" vbProcedure="false">'Etudiant 1'!$A:$A</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">'Etudiant 1'!$B$1:$T$23</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area_0" vbProcedure="false">'Etudiant 1'!$B$1:$T$23</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area_0_0" vbProcedure="false">'Etudiant 1'!$B$1:$T$23</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area_0_0_0" vbProcedure="false">'Etudiant 1'!$B$1:$T$23</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="Z_DEF7657E_CF5E_43E5_870D_F4B63193E461_.wvu.Cols" vbProcedure="false">'Etudiant 2'!$A:$A</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area" vbProcedure="false">'Etudiant 2'!$B$1:$T$23</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area_0" vbProcedure="false">'Etudiant 2'!$B$1:$T$23</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area_0_0" vbProcedure="false">'Etudiant 2'!$B$1:$T$23</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area_0_0_0" vbProcedure="false">'Etudiant 2'!$B$1:$T$23</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="Z_DEF7657E_CF5E_43E5_870D_F4B63193E461_.wvu.Cols" vbProcedure="false">'Etudiant 3'!$A:$A</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area" vbProcedure="false">'Etudiant 3'!$B$1:$T$23</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area_0" vbProcedure="false">'Etudiant 3'!$B$1:$T$23</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area_0_0" vbProcedure="false">'Etudiant 3'!$B$1:$T$23</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area_0_0_0" vbProcedure="false">'Etudiant 3'!$B$1:$T$23</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="Z_DEF7657E_CF5E_43E5_870D_F4B63193E461_.wvu.Cols" vbProcedure="false">'Etudiant 4'!$A:$A</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm.Print_Area" vbProcedure="false">'Etudiant 4'!$B$1:$T$23</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm.Print_Area_0" vbProcedure="false">'Etudiant 4'!$B$1:$T$23</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm.Print_Area_0_0" vbProcedure="false">'Etudiant 4'!$B$1:$T$23</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm.Print_Area_0_0_0" vbProcedure="false">'Etudiant 4'!$B$1:$T$23</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="Z_DEF7657E_CF5E_43E5_870D_F4B63193E461_.wvu.Cols" vbProcedure="false">'Etudiant 5'!$A:$A</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm.Print_Area" vbProcedure="false">'Etudiant 5'!$B$1:$T$23</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm.Print_Area_0" vbProcedure="false">'Etudiant 5'!$B$1:$T$23</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm.Print_Area_0_0" vbProcedure="false">'Etudiant 5'!$B$1:$T$23</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm.Print_Area_0_0_0" vbProcedure="false">'Etudiant 5'!$B$1:$T$23</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="Z_DEF7657E_CF5E_43E5_870D_F4B63193E461_.wvu.Cols" vbProcedure="false">'Etudiant 6'!$A:$A</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area" vbProcedure="false">'Etudiant 6'!$B$1:$T$23</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area_0" vbProcedure="false">'Etudiant 6'!$B$1:$T$23</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area_0_0" vbProcedure="false">'Etudiant 6'!$B$1:$T$23</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area_0_0_0" vbProcedure="false">'Etudiant 6'!$B$1:$T$23</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="Z_DEF7657E_CF5E_43E5_870D_F4B63193E461_.wvu.Cols" vbProcedure="false">'Etudiant 7'!$A:$A</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_xlnm.Print_Area" vbProcedure="false">'Etudiant 7'!$B$1:$T$23</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_xlnm.Print_Area_0" vbProcedure="false">'Etudiant 7'!$B$1:$T$23</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_xlnm.Print_Area_0_0" vbProcedure="false">'Etudiant 7'!$B$1:$T$23</definedName>
+    <definedName function="false" hidden="false" localSheetId="7" name="_xlnm.Print_Area_0_0_0" vbProcedure="false">'Etudiant 7'!$B$1:$T$23</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="39">
   <si>
     <t>Date</t>
   </si>
@@ -152,10 +160,13 @@
     <t>Nom du groupe :</t>
   </si>
   <si>
+    <t>ESIRN – Equipe Solidaire en Innovation et Recherche Numérique</t>
+  </si>
+  <si>
     <t>Nom du produit :</t>
   </si>
   <si>
-    <t>ProjetFramboise</t>
+    <t>MOLPE – Moteur d'Organisation et Listing de Partage d'Evenementiel</t>
   </si>
   <si>
     <t>Nom :</t>
@@ -191,7 +202,7 @@
     <numFmt numFmtId="168" formatCode="@"/>
     <numFmt numFmtId="169" formatCode="0"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -248,6 +259,12 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val=""/>
+      <family val="1"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -410,7 +427,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -607,7 +624,11 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -662,616 +683,154 @@
   </cellStyles>
   <dxfs count="50">
     <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
-      <font>
-        <sz val="11"/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
   </dxfs>
   <colors>
@@ -1345,19 +904,19 @@
   <dimension ref="A1:W27"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AB35" activeCellId="0" sqref="AB35"/>
+      <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.8520408163265"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.4234693877551"/>
-    <col collapsed="false" hidden="false" max="20" min="4" style="0" width="6.57142857142857"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="10.5765306122449"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="14.7142857142857"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="31.0051020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="24" style="0" width="10.5765306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.8542510121457"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.4251012145749"/>
+    <col collapsed="false" hidden="false" max="20" min="4" style="0" width="6.57085020242915"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="10.5748987854251"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="14.7125506072875"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="31.0080971659919"/>
+    <col collapsed="false" hidden="false" max="1025" min="24" style="0" width="10.5748987854251"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1500,7 +1059,7 @@
         <v>07 au 13 sept</v>
       </c>
       <c r="C4" s="17" t="n">
-        <v>0.375</v>
+        <v>1</v>
       </c>
       <c r="D4" s="23" t="n">
         <f aca="false">'Etudiant 1'!C3+'Etudiant 2'!C3+'Etudiant 3'!C3+'Etudiant 4'!C3+'Etudiant 5'!C3+'Etudiant 6'!C3+'Etudiant 7'!C3</f>
@@ -1520,7 +1079,7 @@
       </c>
       <c r="H4" s="24" t="n">
         <f aca="false">'Etudiant 1'!G3+'Etudiant 2'!G3+'Etudiant 3'!G3+'Etudiant 4'!G3+'Etudiant 5'!G3+'Etudiant 6'!G3+'Etudiant 7'!G3</f>
-        <v>0.375</v>
+        <v>1</v>
       </c>
       <c r="I4" s="24" t="n">
         <f aca="false">'Etudiant 1'!H3+'Etudiant 2'!H3+'Etudiant 3'!H3+'Etudiant 4'!H3+'Etudiant 5'!H3+'Etudiant 6'!H3+'Etudiant 7'!H3</f>
@@ -1572,7 +1131,7 @@
       </c>
       <c r="U4" s="27" t="n">
         <f aca="false">SUM(D4:T4)</f>
-        <v>0.375</v>
+        <v>1</v>
       </c>
       <c r="V4" s="28" t="str">
         <f aca="false">CONCATENATE(IF(U4&lt;C4,"-",""),TEXT(IF(U4&lt;C4,C4-U4,U4-C4),"[h]:mm;@"))</f>
@@ -1589,7 +1148,9 @@
         <f aca="false">CONCATENATE(TEXT(A5,"jj")," au ",TEXT(A5+6,"jj mmm"))</f>
         <v>14 au 20 sept.</v>
       </c>
-      <c r="C5" s="17"/>
+      <c r="C5" s="17" t="n">
+        <v>1.5</v>
+      </c>
       <c r="D5" s="23" t="n">
         <f aca="false">'Etudiant 1'!C4+'Etudiant 2'!C4+'Etudiant 3'!C4+'Etudiant 4'!C4+'Etudiant 5'!C4+'Etudiant 6'!C4+'Etudiant 7'!C4</f>
         <v>0</v>
@@ -1608,11 +1169,11 @@
       </c>
       <c r="H5" s="24" t="n">
         <f aca="false">'Etudiant 1'!G4+'Etudiant 2'!G4+'Etudiant 3'!G4+'Etudiant 4'!G4+'Etudiant 5'!G4+'Etudiant 6'!G4+'Etudiant 7'!G4</f>
-        <v>0</v>
+        <v>0.8125</v>
       </c>
       <c r="I5" s="24" t="n">
         <f aca="false">'Etudiant 1'!H4+'Etudiant 2'!H4+'Etudiant 3'!H4+'Etudiant 4'!H4+'Etudiant 5'!H4+'Etudiant 6'!H4+'Etudiant 7'!H4</f>
-        <v>0</v>
+        <v>0.729166666666667</v>
       </c>
       <c r="J5" s="24" t="n">
         <f aca="false">'Etudiant 1'!I4+'Etudiant 2'!I4+'Etudiant 3'!I4+'Etudiant 4'!I4+'Etudiant 5'!I4+'Etudiant 6'!I4+'Etudiant 7'!I4</f>
@@ -1660,11 +1221,11 @@
       </c>
       <c r="U5" s="27" t="n">
         <f aca="false">SUM(D5:T5)</f>
-        <v>0</v>
+        <v>1.54166666666667</v>
       </c>
       <c r="V5" s="28" t="str">
         <f aca="false">CONCATENATE(IF(U5&lt;C5,"-",""),TEXT(IF(U5&lt;C5,C5-U5,U5-C5),"[h]:mm;@"))</f>
-        <v>0:00</v>
+        <v>1:00</v>
       </c>
       <c r="W5" s="29"/>
     </row>
@@ -3082,7 +2643,7 @@
       </c>
       <c r="C22" s="36" t="n">
         <f aca="false">SUM(C4:C21)</f>
-        <v>0.375</v>
+        <v>2.5</v>
       </c>
       <c r="D22" s="37" t="n">
         <f aca="false">SUM(D4:D21)</f>
@@ -3102,11 +2663,11 @@
       </c>
       <c r="H22" s="37" t="n">
         <f aca="false">SUM(H4:H21)</f>
-        <v>0.375</v>
+        <v>1.8125</v>
       </c>
       <c r="I22" s="38" t="n">
         <f aca="false">SUM(I4:I21)</f>
-        <v>0</v>
+        <v>0.729166666666667</v>
       </c>
       <c r="J22" s="38" t="n">
         <f aca="false">SUM(J4:J21)</f>
@@ -3178,11 +2739,11 @@
       </c>
       <c r="H23" s="45" t="str">
         <f aca="false">CONCATENATE(IF(H22&lt;H3,"-",""),TEXT(IF(H22&lt;H3,H3-H22,H22-H3),"[h]:mm;@"))</f>
-        <v>9:00</v>
+        <v>43:30</v>
       </c>
       <c r="I23" s="45" t="str">
         <f aca="false">CONCATENATE(IF(I22&lt;I3,"-",""),TEXT(IF(I22&lt;I3,I3-I22,I22-I3),"[h]:mm;@"))</f>
-        <v>0:00</v>
+        <v>17:30</v>
       </c>
       <c r="J23" s="45" t="str">
         <f aca="false">CONCATENATE(IF(J22&lt;J3,"-",""),TEXT(IF(J22&lt;J3,J3-J22,J22-J3),"[h]:mm;@"))</f>
@@ -3237,11 +2798,13 @@
       <c r="F24" s="47"/>
       <c r="G24" s="47"/>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="49"/>
+      <c r="C25" s="49" t="s">
+        <v>29</v>
+      </c>
       <c r="D25" s="49"/>
       <c r="E25" s="49"/>
       <c r="F25" s="49"/>
@@ -3262,28 +2825,28 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="49"/>
-      <c r="K27" s="49"/>
-      <c r="L27" s="49"/>
-      <c r="M27" s="49"/>
-      <c r="N27" s="49"/>
-      <c r="O27" s="49"/>
-      <c r="P27" s="49"/>
-      <c r="Q27" s="49"/>
-      <c r="R27" s="49"/>
-      <c r="S27" s="49"/>
-      <c r="T27" s="49"/>
+      <c r="C27" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="50"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="50"/>
+      <c r="K27" s="50"/>
+      <c r="L27" s="50"/>
+      <c r="M27" s="50"/>
+      <c r="N27" s="50"/>
+      <c r="O27" s="50"/>
+      <c r="P27" s="50"/>
+      <c r="Q27" s="50"/>
+      <c r="R27" s="50"/>
+      <c r="S27" s="50"/>
+      <c r="T27" s="50"/>
     </row>
   </sheetData>
   <sheetProtection sheet="true" password="deee" objects="true" scenarios="true"/>
@@ -3568,137 +3131,137 @@
   <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M3" activeCellId="0" sqref="M3"/>
+      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.8520408163265"/>
-    <col collapsed="false" hidden="false" max="19" min="3" style="0" width="6.57142857142857"/>
-    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="10.5765306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.8542510121457"/>
+    <col collapsed="false" hidden="false" max="19" min="3" style="0" width="6.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="10.5748987854251"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="51" t="s">
+      <c r="B1" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51" t="s">
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51" t="s">
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51" t="s">
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="R1" s="51"/>
-      <c r="S1" s="52" t="s">
+      <c r="R1" s="52"/>
+      <c r="S1" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="T1" s="53" t="s">
+      <c r="T1" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="90" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="50"/>
-      <c r="C2" s="54" t="s">
+      <c r="B2" s="51"/>
+      <c r="C2" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="54" t="s">
+      <c r="D2" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="54" t="s">
+      <c r="E2" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="54" t="s">
+      <c r="F2" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="54" t="s">
+      <c r="G2" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="54" t="s">
+      <c r="H2" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="54" t="s">
+      <c r="I2" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="54" t="s">
+      <c r="J2" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="54" t="s">
+      <c r="K2" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="54" t="s">
+      <c r="L2" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="54" t="s">
+      <c r="M2" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="54" t="s">
+      <c r="N2" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="54" t="s">
+      <c r="O2" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="P2" s="54" t="s">
+      <c r="P2" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="Q2" s="54" t="s">
+      <c r="Q2" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="R2" s="54" t="s">
+      <c r="R2" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="S2" s="54" t="s">
+      <c r="S2" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="T2" s="53"/>
+      <c r="T2" s="54"/>
     </row>
     <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="21" t="n">
         <v>42254</v>
       </c>
-      <c r="B3" s="55" t="str">
+      <c r="B3" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A3,"jj")," au ",TEXT(A3+6,"jj mmm"))</f>
         <v>07 au 13 sept</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56" t="n">
-        <v>0.0625</v>
-      </c>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="56"/>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="56"/>
-      <c r="S3" s="56"/>
-      <c r="T3" s="57" t="n">
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57" t="n">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="57"/>
+      <c r="R3" s="57"/>
+      <c r="S3" s="57"/>
+      <c r="T3" s="58" t="n">
         <f aca="false">SUM(C3:S3)</f>
-        <v>0.0625</v>
+        <v>0.166666666666667</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3706,30 +3269,34 @@
         <f aca="false">A3+7</f>
         <v>42261</v>
       </c>
-      <c r="B4" s="55" t="str">
+      <c r="B4" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A4,"jj")," au ",TEXT(A4+6,"jj mmm"))</f>
         <v>14 au 20 sept.</v>
       </c>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
-      <c r="P4" s="56"/>
-      <c r="Q4" s="56"/>
-      <c r="R4" s="56"/>
-      <c r="S4" s="56"/>
-      <c r="T4" s="57" t="n">
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H4" s="57" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="57"/>
+      <c r="S4" s="57"/>
+      <c r="T4" s="58" t="n">
         <f aca="false">SUM(C4:S4)</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3737,28 +3304,28 @@
         <f aca="false">A4+7</f>
         <v>42268</v>
       </c>
-      <c r="B5" s="55" t="str">
+      <c r="B5" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A5,"jj")," au ",TEXT(A5+6,"jj mmm"))</f>
         <v>21 au 27 sept.</v>
       </c>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="56"/>
-      <c r="M5" s="56"/>
-      <c r="N5" s="56"/>
-      <c r="O5" s="56"/>
-      <c r="P5" s="56"/>
-      <c r="Q5" s="56"/>
-      <c r="R5" s="56"/>
-      <c r="S5" s="56"/>
-      <c r="T5" s="57" t="n">
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="57"/>
+      <c r="O5" s="57"/>
+      <c r="P5" s="57"/>
+      <c r="Q5" s="57"/>
+      <c r="R5" s="57"/>
+      <c r="S5" s="57"/>
+      <c r="T5" s="58" t="n">
         <f aca="false">SUM(C5:S5)</f>
         <v>0</v>
       </c>
@@ -3768,28 +3335,28 @@
         <f aca="false">A5+7</f>
         <v>42275</v>
       </c>
-      <c r="B6" s="55" t="str">
+      <c r="B6" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A6,"jj mmm")," au ",TEXT(A6+6,"jj mmm"))</f>
         <v>28 sept au 04 oct</v>
       </c>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="56"/>
-      <c r="P6" s="56"/>
-      <c r="Q6" s="56"/>
-      <c r="R6" s="56"/>
-      <c r="S6" s="56"/>
-      <c r="T6" s="57" t="n">
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="57"/>
+      <c r="P6" s="57"/>
+      <c r="Q6" s="57"/>
+      <c r="R6" s="57"/>
+      <c r="S6" s="57"/>
+      <c r="T6" s="58" t="n">
         <f aca="false">SUM(C6:S6)</f>
         <v>0</v>
       </c>
@@ -3799,28 +3366,28 @@
         <f aca="false">A6+7</f>
         <v>42282</v>
       </c>
-      <c r="B7" s="55" t="str">
+      <c r="B7" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A7,"jj")," au ",TEXT(A7+6,"jj mmm"))</f>
         <v>05 au 11 oct.</v>
       </c>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="56"/>
-      <c r="N7" s="56"/>
-      <c r="O7" s="56"/>
-      <c r="P7" s="56"/>
-      <c r="Q7" s="56"/>
-      <c r="R7" s="56"/>
-      <c r="S7" s="56"/>
-      <c r="T7" s="57" t="n">
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="57"/>
+      <c r="O7" s="57"/>
+      <c r="P7" s="57"/>
+      <c r="Q7" s="57"/>
+      <c r="R7" s="57"/>
+      <c r="S7" s="57"/>
+      <c r="T7" s="58" t="n">
         <f aca="false">SUM(C7:S7)</f>
         <v>0</v>
       </c>
@@ -3830,28 +3397,28 @@
         <f aca="false">A7+7</f>
         <v>42289</v>
       </c>
-      <c r="B8" s="55" t="str">
+      <c r="B8" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A8,"jj")," au ",TEXT(A8+6,"jj mmm"))</f>
         <v>12 au 18 oct.</v>
       </c>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="56"/>
-      <c r="M8" s="56"/>
-      <c r="N8" s="56"/>
-      <c r="O8" s="56"/>
-      <c r="P8" s="56"/>
-      <c r="Q8" s="56"/>
-      <c r="R8" s="56"/>
-      <c r="S8" s="56"/>
-      <c r="T8" s="57" t="n">
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="57"/>
+      <c r="P8" s="57"/>
+      <c r="Q8" s="57"/>
+      <c r="R8" s="57"/>
+      <c r="S8" s="57"/>
+      <c r="T8" s="58" t="n">
         <f aca="false">SUM(C8:S8)</f>
         <v>0</v>
       </c>
@@ -3861,28 +3428,28 @@
         <f aca="false">A8+7</f>
         <v>42296</v>
       </c>
-      <c r="B9" s="55" t="str">
+      <c r="B9" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A9,"jj")," au ",TEXT(A9+6,"jj mmm"))</f>
         <v>19 au 25 oct.</v>
       </c>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="56"/>
-      <c r="M9" s="56"/>
-      <c r="N9" s="56"/>
-      <c r="O9" s="56"/>
-      <c r="P9" s="56"/>
-      <c r="Q9" s="56"/>
-      <c r="R9" s="56"/>
-      <c r="S9" s="56"/>
-      <c r="T9" s="57" t="n">
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="57"/>
+      <c r="O9" s="57"/>
+      <c r="P9" s="57"/>
+      <c r="Q9" s="57"/>
+      <c r="R9" s="57"/>
+      <c r="S9" s="57"/>
+      <c r="T9" s="58" t="n">
         <f aca="false">SUM(C9:S9)</f>
         <v>0</v>
       </c>
@@ -3892,28 +3459,28 @@
         <f aca="false">A9+7</f>
         <v>42303</v>
       </c>
-      <c r="B10" s="55" t="str">
+      <c r="B10" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A10,"jj mmm")," au ",TEXT(A10+6,"jj mmm"))</f>
         <v>26 oct au 01 nov</v>
       </c>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="56"/>
-      <c r="M10" s="56"/>
-      <c r="N10" s="56"/>
-      <c r="O10" s="56"/>
-      <c r="P10" s="56"/>
-      <c r="Q10" s="56"/>
-      <c r="R10" s="56"/>
-      <c r="S10" s="56"/>
-      <c r="T10" s="57" t="n">
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="57"/>
+      <c r="N10" s="57"/>
+      <c r="O10" s="57"/>
+      <c r="P10" s="57"/>
+      <c r="Q10" s="57"/>
+      <c r="R10" s="57"/>
+      <c r="S10" s="57"/>
+      <c r="T10" s="58" t="n">
         <f aca="false">SUM(C10:S10)</f>
         <v>0</v>
       </c>
@@ -3923,28 +3490,28 @@
         <f aca="false">A10+7</f>
         <v>42310</v>
       </c>
-      <c r="B11" s="55" t="str">
+      <c r="B11" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A11,"jj")," au ",TEXT(A11+6,"jj mmm"))</f>
         <v>02 au 08 nov.</v>
       </c>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="56"/>
-      <c r="M11" s="56"/>
-      <c r="N11" s="56"/>
-      <c r="O11" s="56"/>
-      <c r="P11" s="56"/>
-      <c r="Q11" s="56"/>
-      <c r="R11" s="56"/>
-      <c r="S11" s="56"/>
-      <c r="T11" s="57" t="n">
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="57"/>
+      <c r="O11" s="57"/>
+      <c r="P11" s="57"/>
+      <c r="Q11" s="57"/>
+      <c r="R11" s="57"/>
+      <c r="S11" s="57"/>
+      <c r="T11" s="58" t="n">
         <f aca="false">SUM(C11:S11)</f>
         <v>0</v>
       </c>
@@ -3954,28 +3521,28 @@
         <f aca="false">A11+7</f>
         <v>42317</v>
       </c>
-      <c r="B12" s="55" t="str">
+      <c r="B12" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A12,"jj")," au ",TEXT(A12+6,"jj mmm"))</f>
         <v>09 au 15 nov.</v>
       </c>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="56"/>
-      <c r="O12" s="56"/>
-      <c r="P12" s="56"/>
-      <c r="Q12" s="56"/>
-      <c r="R12" s="56"/>
-      <c r="S12" s="56"/>
-      <c r="T12" s="57" t="n">
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="57"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="57"/>
+      <c r="P12" s="57"/>
+      <c r="Q12" s="57"/>
+      <c r="R12" s="57"/>
+      <c r="S12" s="57"/>
+      <c r="T12" s="58" t="n">
         <f aca="false">SUM(C12:S12)</f>
         <v>0</v>
       </c>
@@ -3985,28 +3552,28 @@
         <f aca="false">A12+7</f>
         <v>42324</v>
       </c>
-      <c r="B13" s="55" t="str">
+      <c r="B13" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A13,"jj")," au ",TEXT(A13+6,"jj mmm"))</f>
         <v>16 au 22 nov.</v>
       </c>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="56"/>
-      <c r="M13" s="56"/>
-      <c r="N13" s="56"/>
-      <c r="O13" s="56"/>
-      <c r="P13" s="56"/>
-      <c r="Q13" s="56"/>
-      <c r="R13" s="56"/>
-      <c r="S13" s="56"/>
-      <c r="T13" s="57" t="n">
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="57"/>
+      <c r="M13" s="57"/>
+      <c r="N13" s="57"/>
+      <c r="O13" s="57"/>
+      <c r="P13" s="57"/>
+      <c r="Q13" s="57"/>
+      <c r="R13" s="57"/>
+      <c r="S13" s="57"/>
+      <c r="T13" s="58" t="n">
         <f aca="false">SUM(C13:S13)</f>
         <v>0</v>
       </c>
@@ -4016,28 +3583,28 @@
         <f aca="false">A13+7</f>
         <v>42331</v>
       </c>
-      <c r="B14" s="55" t="str">
+      <c r="B14" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A14,"jj")," au ",TEXT(A14+6,"jj mmm"))</f>
         <v>23 au 29 nov.</v>
       </c>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="56"/>
-      <c r="O14" s="56"/>
-      <c r="P14" s="56"/>
-      <c r="Q14" s="56"/>
-      <c r="R14" s="56"/>
-      <c r="S14" s="56"/>
-      <c r="T14" s="57" t="n">
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="57"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="57"/>
+      <c r="P14" s="57"/>
+      <c r="Q14" s="57"/>
+      <c r="R14" s="57"/>
+      <c r="S14" s="57"/>
+      <c r="T14" s="58" t="n">
         <f aca="false">SUM(C14:S14)</f>
         <v>0</v>
       </c>
@@ -4047,28 +3614,28 @@
         <f aca="false">A14+7</f>
         <v>42338</v>
       </c>
-      <c r="B15" s="55" t="str">
+      <c r="B15" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A15,"jj mmm")," au ",TEXT(A15+6,"jj mmm"))</f>
         <v>30 nov au 06 déc</v>
       </c>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="56"/>
-      <c r="M15" s="56"/>
-      <c r="N15" s="56"/>
-      <c r="O15" s="56"/>
-      <c r="P15" s="56"/>
-      <c r="Q15" s="56"/>
-      <c r="R15" s="56"/>
-      <c r="S15" s="56"/>
-      <c r="T15" s="57" t="n">
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="57"/>
+      <c r="N15" s="57"/>
+      <c r="O15" s="57"/>
+      <c r="P15" s="57"/>
+      <c r="Q15" s="57"/>
+      <c r="R15" s="57"/>
+      <c r="S15" s="57"/>
+      <c r="T15" s="58" t="n">
         <f aca="false">SUM(C15:S15)</f>
         <v>0</v>
       </c>
@@ -4078,28 +3645,28 @@
         <f aca="false">A15+7</f>
         <v>42345</v>
       </c>
-      <c r="B16" s="55" t="str">
+      <c r="B16" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A16,"jj")," au ",TEXT(A16+6,"jj mmm"))</f>
         <v>07 au 13 déc.</v>
       </c>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="56"/>
-      <c r="O16" s="56"/>
-      <c r="P16" s="56"/>
-      <c r="Q16" s="56"/>
-      <c r="R16" s="56"/>
-      <c r="S16" s="56"/>
-      <c r="T16" s="57" t="n">
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="57"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="57"/>
+      <c r="P16" s="57"/>
+      <c r="Q16" s="57"/>
+      <c r="R16" s="57"/>
+      <c r="S16" s="57"/>
+      <c r="T16" s="58" t="n">
         <f aca="false">SUM(C16:S16)</f>
         <v>0</v>
       </c>
@@ -4109,28 +3676,28 @@
         <f aca="false">A16+7</f>
         <v>42352</v>
       </c>
-      <c r="B17" s="55" t="str">
+      <c r="B17" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A17,"jj")," au ",TEXT(A17+6,"jj mmm"))</f>
         <v>14 au 20 déc.</v>
       </c>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="56"/>
-      <c r="M17" s="56"/>
-      <c r="N17" s="56"/>
-      <c r="O17" s="56"/>
-      <c r="P17" s="56"/>
-      <c r="Q17" s="56"/>
-      <c r="R17" s="56"/>
-      <c r="S17" s="56"/>
-      <c r="T17" s="57" t="n">
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="57"/>
+      <c r="N17" s="57"/>
+      <c r="O17" s="57"/>
+      <c r="P17" s="57"/>
+      <c r="Q17" s="57"/>
+      <c r="R17" s="57"/>
+      <c r="S17" s="57"/>
+      <c r="T17" s="58" t="n">
         <f aca="false">SUM(C17:S17)</f>
         <v>0</v>
       </c>
@@ -4140,28 +3707,28 @@
         <f aca="false">A17+7</f>
         <v>42359</v>
       </c>
-      <c r="B18" s="55" t="str">
+      <c r="B18" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A18,"jj")," au ",TEXT(A18+6,"jj mmm"))</f>
         <v>21 au 27 déc.</v>
       </c>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="56"/>
-      <c r="O18" s="56"/>
-      <c r="P18" s="56"/>
-      <c r="Q18" s="56"/>
-      <c r="R18" s="56"/>
-      <c r="S18" s="56"/>
-      <c r="T18" s="57" t="n">
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="57"/>
+      <c r="M18" s="57"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="57"/>
+      <c r="P18" s="57"/>
+      <c r="Q18" s="57"/>
+      <c r="R18" s="57"/>
+      <c r="S18" s="57"/>
+      <c r="T18" s="58" t="n">
         <f aca="false">SUM(C18:S18)</f>
         <v>0</v>
       </c>
@@ -4171,28 +3738,28 @@
         <f aca="false">A18+7</f>
         <v>42366</v>
       </c>
-      <c r="B19" s="55" t="str">
+      <c r="B19" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A19,"jj mmm")," au ",TEXT(A19+6,"jj mmm"))</f>
         <v>28 déc au 03 janv</v>
       </c>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="56"/>
-      <c r="L19" s="56"/>
-      <c r="M19" s="56"/>
-      <c r="N19" s="56"/>
-      <c r="O19" s="56"/>
-      <c r="P19" s="56"/>
-      <c r="Q19" s="56"/>
-      <c r="R19" s="56"/>
-      <c r="S19" s="56"/>
-      <c r="T19" s="57" t="n">
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="57"/>
+      <c r="N19" s="57"/>
+      <c r="O19" s="57"/>
+      <c r="P19" s="57"/>
+      <c r="Q19" s="57"/>
+      <c r="R19" s="57"/>
+      <c r="S19" s="57"/>
+      <c r="T19" s="58" t="n">
         <f aca="false">SUM(C19:S19)</f>
         <v>0</v>
       </c>
@@ -4202,133 +3769,133 @@
         <f aca="false">A19+7</f>
         <v>42373</v>
       </c>
-      <c r="B20" s="55" t="str">
+      <c r="B20" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A20,"jj")," au ",TEXT(A20+6,"jj mmm"))</f>
         <v>04 au 10 janv.</v>
       </c>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="56"/>
-      <c r="O20" s="56"/>
-      <c r="P20" s="56"/>
-      <c r="Q20" s="56"/>
-      <c r="R20" s="56"/>
-      <c r="S20" s="56"/>
-      <c r="T20" s="57" t="n">
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="57"/>
+      <c r="M20" s="57"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="57"/>
+      <c r="P20" s="57"/>
+      <c r="Q20" s="57"/>
+      <c r="R20" s="57"/>
+      <c r="S20" s="57"/>
+      <c r="T20" s="58" t="n">
         <f aca="false">SUM(C20:S20)</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="58" t="s">
+      <c r="B21" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="57" t="n">
+      <c r="C21" s="58" t="n">
         <f aca="false">SUM(C3:C20)</f>
         <v>0</v>
       </c>
-      <c r="D21" s="57" t="n">
+      <c r="D21" s="58" t="n">
         <f aca="false">SUM(D3:D20)</f>
         <v>0</v>
       </c>
-      <c r="E21" s="57" t="n">
+      <c r="E21" s="58" t="n">
         <f aca="false">SUM(E3:E20)</f>
         <v>0</v>
       </c>
-      <c r="F21" s="57" t="n">
+      <c r="F21" s="58" t="n">
         <f aca="false">SUM(F3:F20)</f>
         <v>0</v>
       </c>
-      <c r="G21" s="57" t="n">
+      <c r="G21" s="58" t="n">
         <f aca="false">SUM(G3:G20)</f>
-        <v>0.0625</v>
-      </c>
-      <c r="H21" s="57" t="n">
+        <v>0.291666666666667</v>
+      </c>
+      <c r="H21" s="58" t="n">
         <f aca="false">SUM(H3:H20)</f>
-        <v>0</v>
-      </c>
-      <c r="I21" s="57" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I21" s="58" t="n">
         <f aca="false">SUM(I3:I20)</f>
         <v>0</v>
       </c>
-      <c r="J21" s="57" t="n">
+      <c r="J21" s="58" t="n">
         <f aca="false">SUM(J3:J20)</f>
         <v>0</v>
       </c>
-      <c r="K21" s="57" t="n">
+      <c r="K21" s="58" t="n">
         <f aca="false">SUM(K3:K20)</f>
         <v>0</v>
       </c>
-      <c r="L21" s="57" t="n">
+      <c r="L21" s="58" t="n">
         <f aca="false">SUM(L3:L20)</f>
         <v>0</v>
       </c>
-      <c r="M21" s="57" t="n">
+      <c r="M21" s="58" t="n">
         <f aca="false">SUM(M3:M20)</f>
         <v>0</v>
       </c>
-      <c r="N21" s="57" t="n">
+      <c r="N21" s="58" t="n">
         <f aca="false">SUM(N3:N20)</f>
         <v>0</v>
       </c>
-      <c r="O21" s="57" t="n">
+      <c r="O21" s="58" t="n">
         <f aca="false">SUM(O3:O20)</f>
         <v>0</v>
       </c>
-      <c r="P21" s="57" t="n">
+      <c r="P21" s="58" t="n">
         <f aca="false">SUM(P3:P20)</f>
         <v>0</v>
       </c>
-      <c r="Q21" s="57" t="n">
+      <c r="Q21" s="58" t="n">
         <f aca="false">SUM(Q3:Q20)</f>
         <v>0</v>
       </c>
-      <c r="R21" s="57" t="n">
+      <c r="R21" s="58" t="n">
         <f aca="false">SUM(R3:R20)</f>
         <v>0</v>
       </c>
-      <c r="S21" s="57" t="n">
+      <c r="S21" s="58" t="n">
         <f aca="false">SUM(S3:S20)</f>
         <v>0</v>
       </c>
-      <c r="T21" s="59" t="n">
+      <c r="T21" s="60" t="n">
         <f aca="false">SUM(T3:T20)</f>
-        <v>0.0625</v>
+        <v>0.416666666666667</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="49"/>
-      <c r="J23" s="49"/>
-      <c r="K23" s="49"/>
-      <c r="L23" s="49"/>
-      <c r="M23" s="49"/>
-      <c r="N23" s="49"/>
-      <c r="O23" s="49"/>
-      <c r="P23" s="49"/>
-      <c r="Q23" s="49"/>
-      <c r="R23" s="49"/>
-      <c r="S23" s="49"/>
-      <c r="T23" s="49"/>
+      <c r="C23" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="50"/>
+      <c r="M23" s="50"/>
+      <c r="N23" s="50"/>
+      <c r="O23" s="50"/>
+      <c r="P23" s="50"/>
+      <c r="Q23" s="50"/>
+      <c r="R23" s="50"/>
+      <c r="S23" s="50"/>
+      <c r="T23" s="50"/>
     </row>
   </sheetData>
   <sheetProtection sheet="true" password="deee" objects="true" scenarios="true"/>
@@ -4359,137 +3926,137 @@
   <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
+      <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.8520408163265"/>
-    <col collapsed="false" hidden="false" max="19" min="3" style="0" width="6.57142857142857"/>
-    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="10.5765306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.8542510121457"/>
+    <col collapsed="false" hidden="false" max="19" min="3" style="0" width="6.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="10.5748987854251"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="51" t="s">
+      <c r="B1" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51" t="s">
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51" t="s">
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51" t="s">
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="R1" s="51"/>
-      <c r="S1" s="52" t="s">
+      <c r="R1" s="52"/>
+      <c r="S1" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="T1" s="53" t="s">
+      <c r="T1" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="90" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="50"/>
-      <c r="C2" s="54" t="s">
+      <c r="B2" s="51"/>
+      <c r="C2" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="54" t="s">
+      <c r="D2" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="54" t="s">
+      <c r="E2" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="54" t="s">
+      <c r="F2" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="54" t="s">
+      <c r="G2" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="54" t="s">
+      <c r="H2" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="54" t="s">
+      <c r="I2" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="54" t="s">
+      <c r="J2" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="54" t="s">
+      <c r="K2" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="54" t="s">
+      <c r="L2" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="54" t="s">
+      <c r="M2" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="54" t="s">
+      <c r="N2" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="54" t="s">
+      <c r="O2" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="P2" s="54" t="s">
+      <c r="P2" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="Q2" s="54" t="s">
+      <c r="Q2" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="R2" s="54" t="s">
+      <c r="R2" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="S2" s="54" t="s">
+      <c r="S2" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="T2" s="53"/>
+      <c r="T2" s="54"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="21" t="n">
         <v>42254</v>
       </c>
-      <c r="B3" s="55" t="str">
+      <c r="B3" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A3,"jj")," au ",TEXT(A3+6,"jj mmm"))</f>
         <v>07 au 13 sept</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56" t="n">
-        <v>0.0625</v>
-      </c>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="56"/>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="56"/>
-      <c r="S3" s="56"/>
-      <c r="T3" s="57" t="n">
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57" t="n">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="57"/>
+      <c r="R3" s="57"/>
+      <c r="S3" s="57"/>
+      <c r="T3" s="58" t="n">
         <f aca="false">SUM(C3:S3)</f>
-        <v>0.0625</v>
+        <v>0.166666666666667</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4497,30 +4064,34 @@
         <f aca="false">A3+7</f>
         <v>42261</v>
       </c>
-      <c r="B4" s="55" t="str">
+      <c r="B4" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A4,"jj")," au ",TEXT(A4+6,"jj mmm"))</f>
         <v>14 au 20 sept.</v>
       </c>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
-      <c r="P4" s="56"/>
-      <c r="Q4" s="56"/>
-      <c r="R4" s="56"/>
-      <c r="S4" s="56"/>
-      <c r="T4" s="57" t="n">
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H4" s="57" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="57"/>
+      <c r="S4" s="57"/>
+      <c r="T4" s="58" t="n">
         <f aca="false">SUM(C4:S4)</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4528,28 +4099,28 @@
         <f aca="false">A4+7</f>
         <v>42268</v>
       </c>
-      <c r="B5" s="55" t="str">
+      <c r="B5" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A5,"jj")," au ",TEXT(A5+6,"jj mmm"))</f>
         <v>21 au 27 sept.</v>
       </c>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="56"/>
-      <c r="M5" s="56"/>
-      <c r="N5" s="56"/>
-      <c r="O5" s="56"/>
-      <c r="P5" s="56"/>
-      <c r="Q5" s="56"/>
-      <c r="R5" s="56"/>
-      <c r="S5" s="56"/>
-      <c r="T5" s="57" t="n">
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="57"/>
+      <c r="O5" s="57"/>
+      <c r="P5" s="57"/>
+      <c r="Q5" s="57"/>
+      <c r="R5" s="57"/>
+      <c r="S5" s="57"/>
+      <c r="T5" s="58" t="n">
         <f aca="false">SUM(C5:S5)</f>
         <v>0</v>
       </c>
@@ -4559,28 +4130,28 @@
         <f aca="false">A5+7</f>
         <v>42275</v>
       </c>
-      <c r="B6" s="55" t="str">
+      <c r="B6" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A6,"jj mmm")," au ",TEXT(A6+6,"jj mmm"))</f>
         <v>28 sept au 04 oct</v>
       </c>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="56"/>
-      <c r="P6" s="56"/>
-      <c r="Q6" s="56"/>
-      <c r="R6" s="56"/>
-      <c r="S6" s="56"/>
-      <c r="T6" s="57" t="n">
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="57"/>
+      <c r="P6" s="57"/>
+      <c r="Q6" s="57"/>
+      <c r="R6" s="57"/>
+      <c r="S6" s="57"/>
+      <c r="T6" s="58" t="n">
         <f aca="false">SUM(C6:S6)</f>
         <v>0</v>
       </c>
@@ -4590,28 +4161,28 @@
         <f aca="false">A6+7</f>
         <v>42282</v>
       </c>
-      <c r="B7" s="55" t="str">
+      <c r="B7" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A7,"jj")," au ",TEXT(A7+6,"jj mmm"))</f>
         <v>05 au 11 oct.</v>
       </c>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="56"/>
-      <c r="N7" s="56"/>
-      <c r="O7" s="56"/>
-      <c r="P7" s="56"/>
-      <c r="Q7" s="56"/>
-      <c r="R7" s="56"/>
-      <c r="S7" s="56"/>
-      <c r="T7" s="57" t="n">
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="57"/>
+      <c r="O7" s="57"/>
+      <c r="P7" s="57"/>
+      <c r="Q7" s="57"/>
+      <c r="R7" s="57"/>
+      <c r="S7" s="57"/>
+      <c r="T7" s="58" t="n">
         <f aca="false">SUM(C7:S7)</f>
         <v>0</v>
       </c>
@@ -4621,28 +4192,28 @@
         <f aca="false">A7+7</f>
         <v>42289</v>
       </c>
-      <c r="B8" s="55" t="str">
+      <c r="B8" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A8,"jj")," au ",TEXT(A8+6,"jj mmm"))</f>
         <v>12 au 18 oct.</v>
       </c>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="56"/>
-      <c r="M8" s="56"/>
-      <c r="N8" s="56"/>
-      <c r="O8" s="56"/>
-      <c r="P8" s="56"/>
-      <c r="Q8" s="56"/>
-      <c r="R8" s="56"/>
-      <c r="S8" s="56"/>
-      <c r="T8" s="57" t="n">
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="57"/>
+      <c r="P8" s="57"/>
+      <c r="Q8" s="57"/>
+      <c r="R8" s="57"/>
+      <c r="S8" s="57"/>
+      <c r="T8" s="58" t="n">
         <f aca="false">SUM(C8:S8)</f>
         <v>0</v>
       </c>
@@ -4652,28 +4223,28 @@
         <f aca="false">A8+7</f>
         <v>42296</v>
       </c>
-      <c r="B9" s="55" t="str">
+      <c r="B9" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A9,"jj")," au ",TEXT(A9+6,"jj mmm"))</f>
         <v>19 au 25 oct.</v>
       </c>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="56"/>
-      <c r="M9" s="56"/>
-      <c r="N9" s="56"/>
-      <c r="O9" s="56"/>
-      <c r="P9" s="56"/>
-      <c r="Q9" s="56"/>
-      <c r="R9" s="56"/>
-      <c r="S9" s="56"/>
-      <c r="T9" s="57" t="n">
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="57"/>
+      <c r="O9" s="57"/>
+      <c r="P9" s="57"/>
+      <c r="Q9" s="57"/>
+      <c r="R9" s="57"/>
+      <c r="S9" s="57"/>
+      <c r="T9" s="58" t="n">
         <f aca="false">SUM(C9:S9)</f>
         <v>0</v>
       </c>
@@ -4683,28 +4254,28 @@
         <f aca="false">A9+7</f>
         <v>42303</v>
       </c>
-      <c r="B10" s="55" t="str">
+      <c r="B10" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A10,"jj mmm")," au ",TEXT(A10+6,"jj mmm"))</f>
         <v>26 oct au 01 nov</v>
       </c>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="56"/>
-      <c r="M10" s="56"/>
-      <c r="N10" s="56"/>
-      <c r="O10" s="56"/>
-      <c r="P10" s="56"/>
-      <c r="Q10" s="56"/>
-      <c r="R10" s="56"/>
-      <c r="S10" s="56"/>
-      <c r="T10" s="57" t="n">
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="57"/>
+      <c r="N10" s="57"/>
+      <c r="O10" s="57"/>
+      <c r="P10" s="57"/>
+      <c r="Q10" s="57"/>
+      <c r="R10" s="57"/>
+      <c r="S10" s="57"/>
+      <c r="T10" s="58" t="n">
         <f aca="false">SUM(C10:S10)</f>
         <v>0</v>
       </c>
@@ -4714,28 +4285,28 @@
         <f aca="false">A10+7</f>
         <v>42310</v>
       </c>
-      <c r="B11" s="55" t="str">
+      <c r="B11" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A11,"jj")," au ",TEXT(A11+6,"jj mmm"))</f>
         <v>02 au 08 nov.</v>
       </c>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="56"/>
-      <c r="M11" s="56"/>
-      <c r="N11" s="56"/>
-      <c r="O11" s="56"/>
-      <c r="P11" s="56"/>
-      <c r="Q11" s="56"/>
-      <c r="R11" s="56"/>
-      <c r="S11" s="56"/>
-      <c r="T11" s="57" t="n">
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="57"/>
+      <c r="O11" s="57"/>
+      <c r="P11" s="57"/>
+      <c r="Q11" s="57"/>
+      <c r="R11" s="57"/>
+      <c r="S11" s="57"/>
+      <c r="T11" s="58" t="n">
         <f aca="false">SUM(C11:S11)</f>
         <v>0</v>
       </c>
@@ -4745,28 +4316,28 @@
         <f aca="false">A11+7</f>
         <v>42317</v>
       </c>
-      <c r="B12" s="55" t="str">
+      <c r="B12" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A12,"jj")," au ",TEXT(A12+6,"jj mmm"))</f>
         <v>09 au 15 nov.</v>
       </c>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="56"/>
-      <c r="O12" s="56"/>
-      <c r="P12" s="56"/>
-      <c r="Q12" s="56"/>
-      <c r="R12" s="56"/>
-      <c r="S12" s="56"/>
-      <c r="T12" s="57" t="n">
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="57"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="57"/>
+      <c r="P12" s="57"/>
+      <c r="Q12" s="57"/>
+      <c r="R12" s="57"/>
+      <c r="S12" s="57"/>
+      <c r="T12" s="58" t="n">
         <f aca="false">SUM(C12:S12)</f>
         <v>0</v>
       </c>
@@ -4776,28 +4347,28 @@
         <f aca="false">A12+7</f>
         <v>42324</v>
       </c>
-      <c r="B13" s="55" t="str">
+      <c r="B13" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A13,"jj")," au ",TEXT(A13+6,"jj mmm"))</f>
         <v>16 au 22 nov.</v>
       </c>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="56"/>
-      <c r="M13" s="56"/>
-      <c r="N13" s="56"/>
-      <c r="O13" s="56"/>
-      <c r="P13" s="56"/>
-      <c r="Q13" s="56"/>
-      <c r="R13" s="56"/>
-      <c r="S13" s="56"/>
-      <c r="T13" s="57" t="n">
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="57"/>
+      <c r="M13" s="57"/>
+      <c r="N13" s="57"/>
+      <c r="O13" s="57"/>
+      <c r="P13" s="57"/>
+      <c r="Q13" s="57"/>
+      <c r="R13" s="57"/>
+      <c r="S13" s="57"/>
+      <c r="T13" s="58" t="n">
         <f aca="false">SUM(C13:S13)</f>
         <v>0</v>
       </c>
@@ -4807,28 +4378,28 @@
         <f aca="false">A13+7</f>
         <v>42331</v>
       </c>
-      <c r="B14" s="55" t="str">
+      <c r="B14" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A14,"jj")," au ",TEXT(A14+6,"jj mmm"))</f>
         <v>23 au 29 nov.</v>
       </c>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="56"/>
-      <c r="O14" s="56"/>
-      <c r="P14" s="56"/>
-      <c r="Q14" s="56"/>
-      <c r="R14" s="56"/>
-      <c r="S14" s="56"/>
-      <c r="T14" s="57" t="n">
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="57"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="57"/>
+      <c r="P14" s="57"/>
+      <c r="Q14" s="57"/>
+      <c r="R14" s="57"/>
+      <c r="S14" s="57"/>
+      <c r="T14" s="58" t="n">
         <f aca="false">SUM(C14:S14)</f>
         <v>0</v>
       </c>
@@ -4838,28 +4409,28 @@
         <f aca="false">A14+7</f>
         <v>42338</v>
       </c>
-      <c r="B15" s="55" t="str">
+      <c r="B15" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A15,"jj mmm")," au ",TEXT(A15+6,"jj mmm"))</f>
         <v>30 nov au 06 déc</v>
       </c>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="56"/>
-      <c r="M15" s="56"/>
-      <c r="N15" s="56"/>
-      <c r="O15" s="56"/>
-      <c r="P15" s="56"/>
-      <c r="Q15" s="56"/>
-      <c r="R15" s="56"/>
-      <c r="S15" s="56"/>
-      <c r="T15" s="57" t="n">
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="57"/>
+      <c r="N15" s="57"/>
+      <c r="O15" s="57"/>
+      <c r="P15" s="57"/>
+      <c r="Q15" s="57"/>
+      <c r="R15" s="57"/>
+      <c r="S15" s="57"/>
+      <c r="T15" s="58" t="n">
         <f aca="false">SUM(C15:S15)</f>
         <v>0</v>
       </c>
@@ -4869,28 +4440,28 @@
         <f aca="false">A15+7</f>
         <v>42345</v>
       </c>
-      <c r="B16" s="55" t="str">
+      <c r="B16" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A16,"jj")," au ",TEXT(A16+6,"jj mmm"))</f>
         <v>07 au 13 déc.</v>
       </c>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="56"/>
-      <c r="O16" s="56"/>
-      <c r="P16" s="56"/>
-      <c r="Q16" s="56"/>
-      <c r="R16" s="56"/>
-      <c r="S16" s="56"/>
-      <c r="T16" s="57" t="n">
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="57"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="57"/>
+      <c r="P16" s="57"/>
+      <c r="Q16" s="57"/>
+      <c r="R16" s="57"/>
+      <c r="S16" s="57"/>
+      <c r="T16" s="58" t="n">
         <f aca="false">SUM(C16:S16)</f>
         <v>0</v>
       </c>
@@ -4900,28 +4471,28 @@
         <f aca="false">A16+7</f>
         <v>42352</v>
       </c>
-      <c r="B17" s="55" t="str">
+      <c r="B17" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A17,"jj")," au ",TEXT(A17+6,"jj mmm"))</f>
         <v>14 au 20 déc.</v>
       </c>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="56"/>
-      <c r="M17" s="56"/>
-      <c r="N17" s="56"/>
-      <c r="O17" s="56"/>
-      <c r="P17" s="56"/>
-      <c r="Q17" s="56"/>
-      <c r="R17" s="56"/>
-      <c r="S17" s="56"/>
-      <c r="T17" s="57" t="n">
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="57"/>
+      <c r="N17" s="57"/>
+      <c r="O17" s="57"/>
+      <c r="P17" s="57"/>
+      <c r="Q17" s="57"/>
+      <c r="R17" s="57"/>
+      <c r="S17" s="57"/>
+      <c r="T17" s="58" t="n">
         <f aca="false">SUM(C17:S17)</f>
         <v>0</v>
       </c>
@@ -4931,28 +4502,28 @@
         <f aca="false">A17+7</f>
         <v>42359</v>
       </c>
-      <c r="B18" s="55" t="str">
+      <c r="B18" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A18,"jj")," au ",TEXT(A18+6,"jj mmm"))</f>
         <v>21 au 27 déc.</v>
       </c>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="56"/>
-      <c r="O18" s="56"/>
-      <c r="P18" s="56"/>
-      <c r="Q18" s="56"/>
-      <c r="R18" s="56"/>
-      <c r="S18" s="56"/>
-      <c r="T18" s="57" t="n">
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="57"/>
+      <c r="M18" s="57"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="57"/>
+      <c r="P18" s="57"/>
+      <c r="Q18" s="57"/>
+      <c r="R18" s="57"/>
+      <c r="S18" s="57"/>
+      <c r="T18" s="58" t="n">
         <f aca="false">SUM(C18:S18)</f>
         <v>0</v>
       </c>
@@ -4962,28 +4533,28 @@
         <f aca="false">A18+7</f>
         <v>42366</v>
       </c>
-      <c r="B19" s="55" t="str">
+      <c r="B19" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A19,"jj mmm")," au ",TEXT(A19+6,"jj mmm"))</f>
         <v>28 déc au 03 janv</v>
       </c>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="56"/>
-      <c r="L19" s="56"/>
-      <c r="M19" s="56"/>
-      <c r="N19" s="56"/>
-      <c r="O19" s="56"/>
-      <c r="P19" s="56"/>
-      <c r="Q19" s="56"/>
-      <c r="R19" s="56"/>
-      <c r="S19" s="56"/>
-      <c r="T19" s="57" t="n">
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="57"/>
+      <c r="N19" s="57"/>
+      <c r="O19" s="57"/>
+      <c r="P19" s="57"/>
+      <c r="Q19" s="57"/>
+      <c r="R19" s="57"/>
+      <c r="S19" s="57"/>
+      <c r="T19" s="58" t="n">
         <f aca="false">SUM(C19:S19)</f>
         <v>0</v>
       </c>
@@ -4993,133 +4564,133 @@
         <f aca="false">A19+7</f>
         <v>42373</v>
       </c>
-      <c r="B20" s="55" t="str">
+      <c r="B20" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A20,"jj")," au ",TEXT(A20+6,"jj mmm"))</f>
         <v>04 au 10 janv.</v>
       </c>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="56"/>
-      <c r="O20" s="56"/>
-      <c r="P20" s="56"/>
-      <c r="Q20" s="56"/>
-      <c r="R20" s="56"/>
-      <c r="S20" s="56"/>
-      <c r="T20" s="57" t="n">
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="57"/>
+      <c r="M20" s="57"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="57"/>
+      <c r="P20" s="57"/>
+      <c r="Q20" s="57"/>
+      <c r="R20" s="57"/>
+      <c r="S20" s="57"/>
+      <c r="T20" s="58" t="n">
         <f aca="false">SUM(C20:S20)</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="58" t="s">
+      <c r="B21" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="57" t="n">
+      <c r="C21" s="58" t="n">
         <f aca="false">SUM(C3:C20)</f>
         <v>0</v>
       </c>
-      <c r="D21" s="57" t="n">
+      <c r="D21" s="58" t="n">
         <f aca="false">SUM(D3:D20)</f>
         <v>0</v>
       </c>
-      <c r="E21" s="57" t="n">
+      <c r="E21" s="58" t="n">
         <f aca="false">SUM(E3:E20)</f>
         <v>0</v>
       </c>
-      <c r="F21" s="57" t="n">
+      <c r="F21" s="58" t="n">
         <f aca="false">SUM(F3:F20)</f>
         <v>0</v>
       </c>
-      <c r="G21" s="57" t="n">
+      <c r="G21" s="58" t="n">
         <f aca="false">SUM(G3:G20)</f>
-        <v>0.0625</v>
-      </c>
-      <c r="H21" s="57" t="n">
+        <v>0.291666666666667</v>
+      </c>
+      <c r="H21" s="58" t="n">
         <f aca="false">SUM(H3:H20)</f>
-        <v>0</v>
-      </c>
-      <c r="I21" s="57" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I21" s="58" t="n">
         <f aca="false">SUM(I3:I20)</f>
         <v>0</v>
       </c>
-      <c r="J21" s="57" t="n">
+      <c r="J21" s="58" t="n">
         <f aca="false">SUM(J3:J20)</f>
         <v>0</v>
       </c>
-      <c r="K21" s="57" t="n">
+      <c r="K21" s="58" t="n">
         <f aca="false">SUM(K3:K20)</f>
         <v>0</v>
       </c>
-      <c r="L21" s="57" t="n">
+      <c r="L21" s="58" t="n">
         <f aca="false">SUM(L3:L20)</f>
         <v>0</v>
       </c>
-      <c r="M21" s="57" t="n">
+      <c r="M21" s="58" t="n">
         <f aca="false">SUM(M3:M20)</f>
         <v>0</v>
       </c>
-      <c r="N21" s="57" t="n">
+      <c r="N21" s="58" t="n">
         <f aca="false">SUM(N3:N20)</f>
         <v>0</v>
       </c>
-      <c r="O21" s="57" t="n">
+      <c r="O21" s="58" t="n">
         <f aca="false">SUM(O3:O20)</f>
         <v>0</v>
       </c>
-      <c r="P21" s="57" t="n">
+      <c r="P21" s="58" t="n">
         <f aca="false">SUM(P3:P20)</f>
         <v>0</v>
       </c>
-      <c r="Q21" s="57" t="n">
+      <c r="Q21" s="58" t="n">
         <f aca="false">SUM(Q3:Q20)</f>
         <v>0</v>
       </c>
-      <c r="R21" s="57" t="n">
+      <c r="R21" s="58" t="n">
         <f aca="false">SUM(R3:R20)</f>
         <v>0</v>
       </c>
-      <c r="S21" s="57" t="n">
+      <c r="S21" s="58" t="n">
         <f aca="false">SUM(S3:S20)</f>
         <v>0</v>
       </c>
-      <c r="T21" s="59" t="n">
+      <c r="T21" s="60" t="n">
         <f aca="false">SUM(T3:T20)</f>
-        <v>0.0625</v>
+        <v>0.416666666666667</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="49" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="49"/>
-      <c r="J23" s="49"/>
-      <c r="K23" s="49"/>
-      <c r="L23" s="49"/>
-      <c r="M23" s="49"/>
-      <c r="N23" s="49"/>
-      <c r="O23" s="49"/>
-      <c r="P23" s="49"/>
-      <c r="Q23" s="49"/>
-      <c r="R23" s="49"/>
-      <c r="S23" s="49"/>
-      <c r="T23" s="49"/>
+        <v>32</v>
+      </c>
+      <c r="C23" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="50"/>
+      <c r="M23" s="50"/>
+      <c r="N23" s="50"/>
+      <c r="O23" s="50"/>
+      <c r="P23" s="50"/>
+      <c r="Q23" s="50"/>
+      <c r="R23" s="50"/>
+      <c r="S23" s="50"/>
+      <c r="T23" s="50"/>
     </row>
   </sheetData>
   <sheetProtection sheet="true" password="deee" objects="true" scenarios="true"/>
@@ -5150,137 +4721,137 @@
   <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
+      <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.8520408163265"/>
-    <col collapsed="false" hidden="false" max="19" min="3" style="0" width="6.57142857142857"/>
-    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="10.5765306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.8542510121457"/>
+    <col collapsed="false" hidden="false" max="19" min="3" style="0" width="6.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="10.5748987854251"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="51" t="s">
+      <c r="B1" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51" t="s">
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51" t="s">
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51" t="s">
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="R1" s="51"/>
-      <c r="S1" s="52" t="s">
+      <c r="R1" s="52"/>
+      <c r="S1" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="T1" s="53" t="s">
+      <c r="T1" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="90" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="50"/>
-      <c r="C2" s="54" t="s">
+      <c r="B2" s="51"/>
+      <c r="C2" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="54" t="s">
+      <c r="D2" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="54" t="s">
+      <c r="E2" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="54" t="s">
+      <c r="F2" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="54" t="s">
+      <c r="G2" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="54" t="s">
+      <c r="H2" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="54" t="s">
+      <c r="I2" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="54" t="s">
+      <c r="J2" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="54" t="s">
+      <c r="K2" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="54" t="s">
+      <c r="L2" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="54" t="s">
+      <c r="M2" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="54" t="s">
+      <c r="N2" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="54" t="s">
+      <c r="O2" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="P2" s="54" t="s">
+      <c r="P2" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="Q2" s="54" t="s">
+      <c r="Q2" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="R2" s="54" t="s">
+      <c r="R2" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="S2" s="54" t="s">
+      <c r="S2" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="T2" s="53"/>
+      <c r="T2" s="54"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="21" t="n">
         <v>42254</v>
       </c>
-      <c r="B3" s="55" t="str">
+      <c r="B3" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A3,"jj")," au ",TEXT(A3+6,"jj mmm"))</f>
         <v>07 au 13 sept</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56" t="n">
-        <v>0.0625</v>
-      </c>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="56"/>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="56"/>
-      <c r="S3" s="56"/>
-      <c r="T3" s="57" t="n">
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57" t="n">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="57"/>
+      <c r="R3" s="57"/>
+      <c r="S3" s="57"/>
+      <c r="T3" s="58" t="n">
         <f aca="false">SUM(C3:S3)</f>
-        <v>0.0625</v>
+        <v>0.166666666666667</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5288,30 +4859,34 @@
         <f aca="false">A3+7</f>
         <v>42261</v>
       </c>
-      <c r="B4" s="55" t="str">
+      <c r="B4" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A4,"jj")," au ",TEXT(A4+6,"jj mmm"))</f>
         <v>14 au 20 sept.</v>
       </c>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
-      <c r="P4" s="56"/>
-      <c r="Q4" s="56"/>
-      <c r="R4" s="56"/>
-      <c r="S4" s="56"/>
-      <c r="T4" s="57" t="n">
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H4" s="57" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="57"/>
+      <c r="S4" s="57"/>
+      <c r="T4" s="58" t="n">
         <f aca="false">SUM(C4:S4)</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5319,28 +4894,28 @@
         <f aca="false">A4+7</f>
         <v>42268</v>
       </c>
-      <c r="B5" s="55" t="str">
+      <c r="B5" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A5,"jj")," au ",TEXT(A5+6,"jj mmm"))</f>
         <v>21 au 27 sept.</v>
       </c>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="56"/>
-      <c r="M5" s="56"/>
-      <c r="N5" s="56"/>
-      <c r="O5" s="56"/>
-      <c r="P5" s="56"/>
-      <c r="Q5" s="56"/>
-      <c r="R5" s="56"/>
-      <c r="S5" s="56"/>
-      <c r="T5" s="57" t="n">
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="57"/>
+      <c r="O5" s="57"/>
+      <c r="P5" s="57"/>
+      <c r="Q5" s="57"/>
+      <c r="R5" s="57"/>
+      <c r="S5" s="57"/>
+      <c r="T5" s="58" t="n">
         <f aca="false">SUM(C5:S5)</f>
         <v>0</v>
       </c>
@@ -5350,28 +4925,28 @@
         <f aca="false">A5+7</f>
         <v>42275</v>
       </c>
-      <c r="B6" s="55" t="str">
+      <c r="B6" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A6,"jj mmm")," au ",TEXT(A6+6,"jj mmm"))</f>
         <v>28 sept au 04 oct</v>
       </c>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="56"/>
-      <c r="P6" s="56"/>
-      <c r="Q6" s="56"/>
-      <c r="R6" s="56"/>
-      <c r="S6" s="56"/>
-      <c r="T6" s="57" t="n">
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="57"/>
+      <c r="P6" s="57"/>
+      <c r="Q6" s="57"/>
+      <c r="R6" s="57"/>
+      <c r="S6" s="57"/>
+      <c r="T6" s="58" t="n">
         <f aca="false">SUM(C6:S6)</f>
         <v>0</v>
       </c>
@@ -5381,28 +4956,28 @@
         <f aca="false">A6+7</f>
         <v>42282</v>
       </c>
-      <c r="B7" s="55" t="str">
+      <c r="B7" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A7,"jj")," au ",TEXT(A7+6,"jj mmm"))</f>
         <v>05 au 11 oct.</v>
       </c>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="56"/>
-      <c r="N7" s="56"/>
-      <c r="O7" s="56"/>
-      <c r="P7" s="56"/>
-      <c r="Q7" s="56"/>
-      <c r="R7" s="56"/>
-      <c r="S7" s="56"/>
-      <c r="T7" s="57" t="n">
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="57"/>
+      <c r="O7" s="57"/>
+      <c r="P7" s="57"/>
+      <c r="Q7" s="57"/>
+      <c r="R7" s="57"/>
+      <c r="S7" s="57"/>
+      <c r="T7" s="58" t="n">
         <f aca="false">SUM(C7:S7)</f>
         <v>0</v>
       </c>
@@ -5412,28 +4987,28 @@
         <f aca="false">A7+7</f>
         <v>42289</v>
       </c>
-      <c r="B8" s="55" t="str">
+      <c r="B8" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A8,"jj")," au ",TEXT(A8+6,"jj mmm"))</f>
         <v>12 au 18 oct.</v>
       </c>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="56"/>
-      <c r="M8" s="56"/>
-      <c r="N8" s="56"/>
-      <c r="O8" s="56"/>
-      <c r="P8" s="56"/>
-      <c r="Q8" s="56"/>
-      <c r="R8" s="56"/>
-      <c r="S8" s="56"/>
-      <c r="T8" s="57" t="n">
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="57"/>
+      <c r="P8" s="57"/>
+      <c r="Q8" s="57"/>
+      <c r="R8" s="57"/>
+      <c r="S8" s="57"/>
+      <c r="T8" s="58" t="n">
         <f aca="false">SUM(C8:S8)</f>
         <v>0</v>
       </c>
@@ -5443,28 +5018,28 @@
         <f aca="false">A8+7</f>
         <v>42296</v>
       </c>
-      <c r="B9" s="55" t="str">
+      <c r="B9" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A9,"jj")," au ",TEXT(A9+6,"jj mmm"))</f>
         <v>19 au 25 oct.</v>
       </c>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="56"/>
-      <c r="M9" s="56"/>
-      <c r="N9" s="56"/>
-      <c r="O9" s="56"/>
-      <c r="P9" s="56"/>
-      <c r="Q9" s="56"/>
-      <c r="R9" s="56"/>
-      <c r="S9" s="56"/>
-      <c r="T9" s="57" t="n">
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="57"/>
+      <c r="O9" s="57"/>
+      <c r="P9" s="57"/>
+      <c r="Q9" s="57"/>
+      <c r="R9" s="57"/>
+      <c r="S9" s="57"/>
+      <c r="T9" s="58" t="n">
         <f aca="false">SUM(C9:S9)</f>
         <v>0</v>
       </c>
@@ -5474,28 +5049,28 @@
         <f aca="false">A9+7</f>
         <v>42303</v>
       </c>
-      <c r="B10" s="55" t="str">
+      <c r="B10" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A10,"jj mmm")," au ",TEXT(A10+6,"jj mmm"))</f>
         <v>26 oct au 01 nov</v>
       </c>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="56"/>
-      <c r="M10" s="56"/>
-      <c r="N10" s="56"/>
-      <c r="O10" s="56"/>
-      <c r="P10" s="56"/>
-      <c r="Q10" s="56"/>
-      <c r="R10" s="56"/>
-      <c r="S10" s="56"/>
-      <c r="T10" s="57" t="n">
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="57"/>
+      <c r="N10" s="57"/>
+      <c r="O10" s="57"/>
+      <c r="P10" s="57"/>
+      <c r="Q10" s="57"/>
+      <c r="R10" s="57"/>
+      <c r="S10" s="57"/>
+      <c r="T10" s="58" t="n">
         <f aca="false">SUM(C10:S10)</f>
         <v>0</v>
       </c>
@@ -5505,28 +5080,28 @@
         <f aca="false">A10+7</f>
         <v>42310</v>
       </c>
-      <c r="B11" s="55" t="str">
+      <c r="B11" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A11,"jj")," au ",TEXT(A11+6,"jj mmm"))</f>
         <v>02 au 08 nov.</v>
       </c>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="56"/>
-      <c r="M11" s="56"/>
-      <c r="N11" s="56"/>
-      <c r="O11" s="56"/>
-      <c r="P11" s="56"/>
-      <c r="Q11" s="56"/>
-      <c r="R11" s="56"/>
-      <c r="S11" s="56"/>
-      <c r="T11" s="57" t="n">
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="57"/>
+      <c r="O11" s="57"/>
+      <c r="P11" s="57"/>
+      <c r="Q11" s="57"/>
+      <c r="R11" s="57"/>
+      <c r="S11" s="57"/>
+      <c r="T11" s="58" t="n">
         <f aca="false">SUM(C11:S11)</f>
         <v>0</v>
       </c>
@@ -5536,28 +5111,28 @@
         <f aca="false">A11+7</f>
         <v>42317</v>
       </c>
-      <c r="B12" s="55" t="str">
+      <c r="B12" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A12,"jj")," au ",TEXT(A12+6,"jj mmm"))</f>
         <v>09 au 15 nov.</v>
       </c>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="56"/>
-      <c r="O12" s="56"/>
-      <c r="P12" s="56"/>
-      <c r="Q12" s="56"/>
-      <c r="R12" s="56"/>
-      <c r="S12" s="56"/>
-      <c r="T12" s="57" t="n">
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="57"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="57"/>
+      <c r="P12" s="57"/>
+      <c r="Q12" s="57"/>
+      <c r="R12" s="57"/>
+      <c r="S12" s="57"/>
+      <c r="T12" s="58" t="n">
         <f aca="false">SUM(C12:S12)</f>
         <v>0</v>
       </c>
@@ -5567,28 +5142,28 @@
         <f aca="false">A12+7</f>
         <v>42324</v>
       </c>
-      <c r="B13" s="55" t="str">
+      <c r="B13" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A13,"jj")," au ",TEXT(A13+6,"jj mmm"))</f>
         <v>16 au 22 nov.</v>
       </c>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="56"/>
-      <c r="M13" s="56"/>
-      <c r="N13" s="56"/>
-      <c r="O13" s="56"/>
-      <c r="P13" s="56"/>
-      <c r="Q13" s="56"/>
-      <c r="R13" s="56"/>
-      <c r="S13" s="56"/>
-      <c r="T13" s="57" t="n">
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="57"/>
+      <c r="M13" s="57"/>
+      <c r="N13" s="57"/>
+      <c r="O13" s="57"/>
+      <c r="P13" s="57"/>
+      <c r="Q13" s="57"/>
+      <c r="R13" s="57"/>
+      <c r="S13" s="57"/>
+      <c r="T13" s="58" t="n">
         <f aca="false">SUM(C13:S13)</f>
         <v>0</v>
       </c>
@@ -5598,28 +5173,28 @@
         <f aca="false">A13+7</f>
         <v>42331</v>
       </c>
-      <c r="B14" s="55" t="str">
+      <c r="B14" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A14,"jj")," au ",TEXT(A14+6,"jj mmm"))</f>
         <v>23 au 29 nov.</v>
       </c>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="56"/>
-      <c r="O14" s="56"/>
-      <c r="P14" s="56"/>
-      <c r="Q14" s="56"/>
-      <c r="R14" s="56"/>
-      <c r="S14" s="56"/>
-      <c r="T14" s="57" t="n">
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="57"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="57"/>
+      <c r="P14" s="57"/>
+      <c r="Q14" s="57"/>
+      <c r="R14" s="57"/>
+      <c r="S14" s="57"/>
+      <c r="T14" s="58" t="n">
         <f aca="false">SUM(C14:S14)</f>
         <v>0</v>
       </c>
@@ -5629,28 +5204,28 @@
         <f aca="false">A14+7</f>
         <v>42338</v>
       </c>
-      <c r="B15" s="55" t="str">
+      <c r="B15" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A15,"jj mmm")," au ",TEXT(A15+6,"jj mmm"))</f>
         <v>30 nov au 06 déc</v>
       </c>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="56"/>
-      <c r="M15" s="56"/>
-      <c r="N15" s="56"/>
-      <c r="O15" s="56"/>
-      <c r="P15" s="56"/>
-      <c r="Q15" s="56"/>
-      <c r="R15" s="56"/>
-      <c r="S15" s="56"/>
-      <c r="T15" s="57" t="n">
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="57"/>
+      <c r="N15" s="57"/>
+      <c r="O15" s="57"/>
+      <c r="P15" s="57"/>
+      <c r="Q15" s="57"/>
+      <c r="R15" s="57"/>
+      <c r="S15" s="57"/>
+      <c r="T15" s="58" t="n">
         <f aca="false">SUM(C15:S15)</f>
         <v>0</v>
       </c>
@@ -5660,28 +5235,28 @@
         <f aca="false">A15+7</f>
         <v>42345</v>
       </c>
-      <c r="B16" s="55" t="str">
+      <c r="B16" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A16,"jj")," au ",TEXT(A16+6,"jj mmm"))</f>
         <v>07 au 13 déc.</v>
       </c>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="56"/>
-      <c r="O16" s="56"/>
-      <c r="P16" s="56"/>
-      <c r="Q16" s="56"/>
-      <c r="R16" s="56"/>
-      <c r="S16" s="56"/>
-      <c r="T16" s="57" t="n">
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="57"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="57"/>
+      <c r="P16" s="57"/>
+      <c r="Q16" s="57"/>
+      <c r="R16" s="57"/>
+      <c r="S16" s="57"/>
+      <c r="T16" s="58" t="n">
         <f aca="false">SUM(C16:S16)</f>
         <v>0</v>
       </c>
@@ -5691,28 +5266,28 @@
         <f aca="false">A16+7</f>
         <v>42352</v>
       </c>
-      <c r="B17" s="55" t="str">
+      <c r="B17" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A17,"jj")," au ",TEXT(A17+6,"jj mmm"))</f>
         <v>14 au 20 déc.</v>
       </c>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="56"/>
-      <c r="M17" s="56"/>
-      <c r="N17" s="56"/>
-      <c r="O17" s="56"/>
-      <c r="P17" s="56"/>
-      <c r="Q17" s="56"/>
-      <c r="R17" s="56"/>
-      <c r="S17" s="56"/>
-      <c r="T17" s="57" t="n">
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="57"/>
+      <c r="N17" s="57"/>
+      <c r="O17" s="57"/>
+      <c r="P17" s="57"/>
+      <c r="Q17" s="57"/>
+      <c r="R17" s="57"/>
+      <c r="S17" s="57"/>
+      <c r="T17" s="58" t="n">
         <f aca="false">SUM(C17:S17)</f>
         <v>0</v>
       </c>
@@ -5722,28 +5297,28 @@
         <f aca="false">A17+7</f>
         <v>42359</v>
       </c>
-      <c r="B18" s="55" t="str">
+      <c r="B18" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A18,"jj")," au ",TEXT(A18+6,"jj mmm"))</f>
         <v>21 au 27 déc.</v>
       </c>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="56"/>
-      <c r="O18" s="56"/>
-      <c r="P18" s="56"/>
-      <c r="Q18" s="56"/>
-      <c r="R18" s="56"/>
-      <c r="S18" s="56"/>
-      <c r="T18" s="57" t="n">
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="57"/>
+      <c r="M18" s="57"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="57"/>
+      <c r="P18" s="57"/>
+      <c r="Q18" s="57"/>
+      <c r="R18" s="57"/>
+      <c r="S18" s="57"/>
+      <c r="T18" s="58" t="n">
         <f aca="false">SUM(C18:S18)</f>
         <v>0</v>
       </c>
@@ -5753,28 +5328,28 @@
         <f aca="false">A18+7</f>
         <v>42366</v>
       </c>
-      <c r="B19" s="55" t="str">
+      <c r="B19" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A19,"jj mmm")," au ",TEXT(A19+6,"jj mmm"))</f>
         <v>28 déc au 03 janv</v>
       </c>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="56"/>
-      <c r="L19" s="56"/>
-      <c r="M19" s="56"/>
-      <c r="N19" s="56"/>
-      <c r="O19" s="56"/>
-      <c r="P19" s="56"/>
-      <c r="Q19" s="56"/>
-      <c r="R19" s="56"/>
-      <c r="S19" s="56"/>
-      <c r="T19" s="57" t="n">
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="57"/>
+      <c r="N19" s="57"/>
+      <c r="O19" s="57"/>
+      <c r="P19" s="57"/>
+      <c r="Q19" s="57"/>
+      <c r="R19" s="57"/>
+      <c r="S19" s="57"/>
+      <c r="T19" s="58" t="n">
         <f aca="false">SUM(C19:S19)</f>
         <v>0</v>
       </c>
@@ -5784,133 +5359,133 @@
         <f aca="false">A19+7</f>
         <v>42373</v>
       </c>
-      <c r="B20" s="55" t="str">
+      <c r="B20" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A20,"jj")," au ",TEXT(A20+6,"jj mmm"))</f>
         <v>04 au 10 janv.</v>
       </c>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="56"/>
-      <c r="O20" s="56"/>
-      <c r="P20" s="56"/>
-      <c r="Q20" s="56"/>
-      <c r="R20" s="56"/>
-      <c r="S20" s="56"/>
-      <c r="T20" s="57" t="n">
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="57"/>
+      <c r="M20" s="57"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="57"/>
+      <c r="P20" s="57"/>
+      <c r="Q20" s="57"/>
+      <c r="R20" s="57"/>
+      <c r="S20" s="57"/>
+      <c r="T20" s="58" t="n">
         <f aca="false">SUM(C20:S20)</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="58" t="s">
+      <c r="B21" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="57" t="n">
+      <c r="C21" s="58" t="n">
         <f aca="false">SUM(C3:C20)</f>
         <v>0</v>
       </c>
-      <c r="D21" s="57" t="n">
+      <c r="D21" s="58" t="n">
         <f aca="false">SUM(D3:D20)</f>
         <v>0</v>
       </c>
-      <c r="E21" s="57" t="n">
+      <c r="E21" s="58" t="n">
         <f aca="false">SUM(E3:E20)</f>
         <v>0</v>
       </c>
-      <c r="F21" s="57" t="n">
+      <c r="F21" s="58" t="n">
         <f aca="false">SUM(F3:F20)</f>
         <v>0</v>
       </c>
-      <c r="G21" s="57" t="n">
+      <c r="G21" s="58" t="n">
         <f aca="false">SUM(G3:G20)</f>
-        <v>0.0625</v>
-      </c>
-      <c r="H21" s="57" t="n">
+        <v>0.291666666666667</v>
+      </c>
+      <c r="H21" s="58" t="n">
         <f aca="false">SUM(H3:H20)</f>
-        <v>0</v>
-      </c>
-      <c r="I21" s="57" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I21" s="58" t="n">
         <f aca="false">SUM(I3:I20)</f>
         <v>0</v>
       </c>
-      <c r="J21" s="57" t="n">
+      <c r="J21" s="58" t="n">
         <f aca="false">SUM(J3:J20)</f>
         <v>0</v>
       </c>
-      <c r="K21" s="57" t="n">
+      <c r="K21" s="58" t="n">
         <f aca="false">SUM(K3:K20)</f>
         <v>0</v>
       </c>
-      <c r="L21" s="57" t="n">
+      <c r="L21" s="58" t="n">
         <f aca="false">SUM(L3:L20)</f>
         <v>0</v>
       </c>
-      <c r="M21" s="57" t="n">
+      <c r="M21" s="58" t="n">
         <f aca="false">SUM(M3:M20)</f>
         <v>0</v>
       </c>
-      <c r="N21" s="57" t="n">
+      <c r="N21" s="58" t="n">
         <f aca="false">SUM(N3:N20)</f>
         <v>0</v>
       </c>
-      <c r="O21" s="57" t="n">
+      <c r="O21" s="58" t="n">
         <f aca="false">SUM(O3:O20)</f>
         <v>0</v>
       </c>
-      <c r="P21" s="57" t="n">
+      <c r="P21" s="58" t="n">
         <f aca="false">SUM(P3:P20)</f>
         <v>0</v>
       </c>
-      <c r="Q21" s="57" t="n">
+      <c r="Q21" s="58" t="n">
         <f aca="false">SUM(Q3:Q20)</f>
         <v>0</v>
       </c>
-      <c r="R21" s="57" t="n">
+      <c r="R21" s="58" t="n">
         <f aca="false">SUM(R3:R20)</f>
         <v>0</v>
       </c>
-      <c r="S21" s="57" t="n">
+      <c r="S21" s="58" t="n">
         <f aca="false">SUM(S3:S20)</f>
         <v>0</v>
       </c>
-      <c r="T21" s="59" t="n">
+      <c r="T21" s="60" t="n">
         <f aca="false">SUM(T3:T20)</f>
-        <v>0.0625</v>
+        <v>0.416666666666667</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="49"/>
-      <c r="J23" s="49"/>
-      <c r="K23" s="49"/>
-      <c r="L23" s="49"/>
-      <c r="M23" s="49"/>
-      <c r="N23" s="49"/>
-      <c r="O23" s="49"/>
-      <c r="P23" s="49"/>
-      <c r="Q23" s="49"/>
-      <c r="R23" s="49"/>
-      <c r="S23" s="49"/>
-      <c r="T23" s="49"/>
+        <v>32</v>
+      </c>
+      <c r="C23" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="50"/>
+      <c r="M23" s="50"/>
+      <c r="N23" s="50"/>
+      <c r="O23" s="50"/>
+      <c r="P23" s="50"/>
+      <c r="Q23" s="50"/>
+      <c r="R23" s="50"/>
+      <c r="S23" s="50"/>
+      <c r="T23" s="50"/>
     </row>
   </sheetData>
   <sheetProtection sheet="true" password="deee" objects="true" scenarios="true"/>
@@ -5941,137 +5516,137 @@
   <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
+      <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.8520408163265"/>
-    <col collapsed="false" hidden="false" max="19" min="3" style="0" width="6.57142857142857"/>
-    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="10.5765306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.8542510121457"/>
+    <col collapsed="false" hidden="false" max="19" min="3" style="0" width="6.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="10.5748987854251"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="51" t="s">
+      <c r="B1" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51" t="s">
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51" t="s">
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51" t="s">
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="R1" s="51"/>
-      <c r="S1" s="52" t="s">
+      <c r="R1" s="52"/>
+      <c r="S1" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="T1" s="53" t="s">
+      <c r="T1" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="90" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="50"/>
-      <c r="C2" s="54" t="s">
+      <c r="B2" s="51"/>
+      <c r="C2" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="54" t="s">
+      <c r="D2" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="54" t="s">
+      <c r="E2" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="54" t="s">
+      <c r="F2" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="54" t="s">
+      <c r="G2" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="54" t="s">
+      <c r="H2" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="54" t="s">
+      <c r="I2" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="54" t="s">
+      <c r="J2" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="54" t="s">
+      <c r="K2" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="54" t="s">
+      <c r="L2" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="54" t="s">
+      <c r="M2" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="54" t="s">
+      <c r="N2" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="54" t="s">
+      <c r="O2" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="P2" s="54" t="s">
+      <c r="P2" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="Q2" s="54" t="s">
+      <c r="Q2" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="R2" s="54" t="s">
+      <c r="R2" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="S2" s="54" t="s">
+      <c r="S2" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="T2" s="53"/>
+      <c r="T2" s="54"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="21" t="n">
         <v>42254</v>
       </c>
-      <c r="B3" s="55" t="str">
+      <c r="B3" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A3,"jj")," au ",TEXT(A3+6,"jj mmm"))</f>
         <v>07 au 13 sept</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56" t="n">
-        <v>0.0625</v>
-      </c>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="56"/>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="56"/>
-      <c r="S3" s="56"/>
-      <c r="T3" s="57" t="n">
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57" t="n">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="57"/>
+      <c r="R3" s="57"/>
+      <c r="S3" s="57"/>
+      <c r="T3" s="58" t="n">
         <f aca="false">SUM(C3:S3)</f>
-        <v>0.0625</v>
+        <v>0.166666666666667</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6079,30 +5654,34 @@
         <f aca="false">A3+7</f>
         <v>42261</v>
       </c>
-      <c r="B4" s="55" t="str">
+      <c r="B4" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A4,"jj")," au ",TEXT(A4+6,"jj mmm"))</f>
         <v>14 au 20 sept.</v>
       </c>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
-      <c r="P4" s="56"/>
-      <c r="Q4" s="56"/>
-      <c r="R4" s="56"/>
-      <c r="S4" s="56"/>
-      <c r="T4" s="57" t="n">
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H4" s="57" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="57"/>
+      <c r="S4" s="57"/>
+      <c r="T4" s="58" t="n">
         <f aca="false">SUM(C4:S4)</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6110,28 +5689,28 @@
         <f aca="false">A4+7</f>
         <v>42268</v>
       </c>
-      <c r="B5" s="55" t="str">
+      <c r="B5" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A5,"jj")," au ",TEXT(A5+6,"jj mmm"))</f>
         <v>21 au 27 sept.</v>
       </c>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="56"/>
-      <c r="M5" s="56"/>
-      <c r="N5" s="56"/>
-      <c r="O5" s="56"/>
-      <c r="P5" s="56"/>
-      <c r="Q5" s="56"/>
-      <c r="R5" s="56"/>
-      <c r="S5" s="56"/>
-      <c r="T5" s="57" t="n">
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="57"/>
+      <c r="O5" s="57"/>
+      <c r="P5" s="57"/>
+      <c r="Q5" s="57"/>
+      <c r="R5" s="57"/>
+      <c r="S5" s="57"/>
+      <c r="T5" s="58" t="n">
         <f aca="false">SUM(C5:S5)</f>
         <v>0</v>
       </c>
@@ -6141,28 +5720,28 @@
         <f aca="false">A5+7</f>
         <v>42275</v>
       </c>
-      <c r="B6" s="55" t="str">
+      <c r="B6" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A6,"jj mmm")," au ",TEXT(A6+6,"jj mmm"))</f>
         <v>28 sept au 04 oct</v>
       </c>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="56"/>
-      <c r="P6" s="56"/>
-      <c r="Q6" s="56"/>
-      <c r="R6" s="56"/>
-      <c r="S6" s="56"/>
-      <c r="T6" s="57" t="n">
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="57"/>
+      <c r="P6" s="57"/>
+      <c r="Q6" s="57"/>
+      <c r="R6" s="57"/>
+      <c r="S6" s="57"/>
+      <c r="T6" s="58" t="n">
         <f aca="false">SUM(C6:S6)</f>
         <v>0</v>
       </c>
@@ -6172,28 +5751,28 @@
         <f aca="false">A6+7</f>
         <v>42282</v>
       </c>
-      <c r="B7" s="55" t="str">
+      <c r="B7" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A7,"jj")," au ",TEXT(A7+6,"jj mmm"))</f>
         <v>05 au 11 oct.</v>
       </c>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="56"/>
-      <c r="N7" s="56"/>
-      <c r="O7" s="56"/>
-      <c r="P7" s="56"/>
-      <c r="Q7" s="56"/>
-      <c r="R7" s="56"/>
-      <c r="S7" s="56"/>
-      <c r="T7" s="57" t="n">
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="57"/>
+      <c r="O7" s="57"/>
+      <c r="P7" s="57"/>
+      <c r="Q7" s="57"/>
+      <c r="R7" s="57"/>
+      <c r="S7" s="57"/>
+      <c r="T7" s="58" t="n">
         <f aca="false">SUM(C7:S7)</f>
         <v>0</v>
       </c>
@@ -6203,28 +5782,28 @@
         <f aca="false">A7+7</f>
         <v>42289</v>
       </c>
-      <c r="B8" s="55" t="str">
+      <c r="B8" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A8,"jj")," au ",TEXT(A8+6,"jj mmm"))</f>
         <v>12 au 18 oct.</v>
       </c>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="56"/>
-      <c r="M8" s="56"/>
-      <c r="N8" s="56"/>
-      <c r="O8" s="56"/>
-      <c r="P8" s="56"/>
-      <c r="Q8" s="56"/>
-      <c r="R8" s="56"/>
-      <c r="S8" s="56"/>
-      <c r="T8" s="57" t="n">
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="57"/>
+      <c r="P8" s="57"/>
+      <c r="Q8" s="57"/>
+      <c r="R8" s="57"/>
+      <c r="S8" s="57"/>
+      <c r="T8" s="58" t="n">
         <f aca="false">SUM(C8:S8)</f>
         <v>0</v>
       </c>
@@ -6234,28 +5813,28 @@
         <f aca="false">A8+7</f>
         <v>42296</v>
       </c>
-      <c r="B9" s="55" t="str">
+      <c r="B9" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A9,"jj")," au ",TEXT(A9+6,"jj mmm"))</f>
         <v>19 au 25 oct.</v>
       </c>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="56"/>
-      <c r="M9" s="56"/>
-      <c r="N9" s="56"/>
-      <c r="O9" s="56"/>
-      <c r="P9" s="56"/>
-      <c r="Q9" s="56"/>
-      <c r="R9" s="56"/>
-      <c r="S9" s="56"/>
-      <c r="T9" s="57" t="n">
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="57"/>
+      <c r="O9" s="57"/>
+      <c r="P9" s="57"/>
+      <c r="Q9" s="57"/>
+      <c r="R9" s="57"/>
+      <c r="S9" s="57"/>
+      <c r="T9" s="58" t="n">
         <f aca="false">SUM(C9:S9)</f>
         <v>0</v>
       </c>
@@ -6265,28 +5844,28 @@
         <f aca="false">A9+7</f>
         <v>42303</v>
       </c>
-      <c r="B10" s="55" t="str">
+      <c r="B10" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A10,"jj mmm")," au ",TEXT(A10+6,"jj mmm"))</f>
         <v>26 oct au 01 nov</v>
       </c>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="56"/>
-      <c r="M10" s="56"/>
-      <c r="N10" s="56"/>
-      <c r="O10" s="56"/>
-      <c r="P10" s="56"/>
-      <c r="Q10" s="56"/>
-      <c r="R10" s="56"/>
-      <c r="S10" s="56"/>
-      <c r="T10" s="57" t="n">
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="57"/>
+      <c r="N10" s="57"/>
+      <c r="O10" s="57"/>
+      <c r="P10" s="57"/>
+      <c r="Q10" s="57"/>
+      <c r="R10" s="57"/>
+      <c r="S10" s="57"/>
+      <c r="T10" s="58" t="n">
         <f aca="false">SUM(C10:S10)</f>
         <v>0</v>
       </c>
@@ -6296,28 +5875,28 @@
         <f aca="false">A10+7</f>
         <v>42310</v>
       </c>
-      <c r="B11" s="55" t="str">
+      <c r="B11" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A11,"jj")," au ",TEXT(A11+6,"jj mmm"))</f>
         <v>02 au 08 nov.</v>
       </c>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="56"/>
-      <c r="M11" s="56"/>
-      <c r="N11" s="56"/>
-      <c r="O11" s="56"/>
-      <c r="P11" s="56"/>
-      <c r="Q11" s="56"/>
-      <c r="R11" s="56"/>
-      <c r="S11" s="56"/>
-      <c r="T11" s="57" t="n">
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="57"/>
+      <c r="O11" s="57"/>
+      <c r="P11" s="57"/>
+      <c r="Q11" s="57"/>
+      <c r="R11" s="57"/>
+      <c r="S11" s="57"/>
+      <c r="T11" s="58" t="n">
         <f aca="false">SUM(C11:S11)</f>
         <v>0</v>
       </c>
@@ -6327,28 +5906,28 @@
         <f aca="false">A11+7</f>
         <v>42317</v>
       </c>
-      <c r="B12" s="55" t="str">
+      <c r="B12" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A12,"jj")," au ",TEXT(A12+6,"jj mmm"))</f>
         <v>09 au 15 nov.</v>
       </c>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="56"/>
-      <c r="O12" s="56"/>
-      <c r="P12" s="56"/>
-      <c r="Q12" s="56"/>
-      <c r="R12" s="56"/>
-      <c r="S12" s="56"/>
-      <c r="T12" s="57" t="n">
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="57"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="57"/>
+      <c r="P12" s="57"/>
+      <c r="Q12" s="57"/>
+      <c r="R12" s="57"/>
+      <c r="S12" s="57"/>
+      <c r="T12" s="58" t="n">
         <f aca="false">SUM(C12:S12)</f>
         <v>0</v>
       </c>
@@ -6358,28 +5937,28 @@
         <f aca="false">A12+7</f>
         <v>42324</v>
       </c>
-      <c r="B13" s="55" t="str">
+      <c r="B13" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A13,"jj")," au ",TEXT(A13+6,"jj mmm"))</f>
         <v>16 au 22 nov.</v>
       </c>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="56"/>
-      <c r="M13" s="56"/>
-      <c r="N13" s="56"/>
-      <c r="O13" s="56"/>
-      <c r="P13" s="56"/>
-      <c r="Q13" s="56"/>
-      <c r="R13" s="56"/>
-      <c r="S13" s="56"/>
-      <c r="T13" s="57" t="n">
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="57"/>
+      <c r="M13" s="57"/>
+      <c r="N13" s="57"/>
+      <c r="O13" s="57"/>
+      <c r="P13" s="57"/>
+      <c r="Q13" s="57"/>
+      <c r="R13" s="57"/>
+      <c r="S13" s="57"/>
+      <c r="T13" s="58" t="n">
         <f aca="false">SUM(C13:S13)</f>
         <v>0</v>
       </c>
@@ -6389,28 +5968,28 @@
         <f aca="false">A13+7</f>
         <v>42331</v>
       </c>
-      <c r="B14" s="55" t="str">
+      <c r="B14" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A14,"jj")," au ",TEXT(A14+6,"jj mmm"))</f>
         <v>23 au 29 nov.</v>
       </c>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="56"/>
-      <c r="O14" s="56"/>
-      <c r="P14" s="56"/>
-      <c r="Q14" s="56"/>
-      <c r="R14" s="56"/>
-      <c r="S14" s="56"/>
-      <c r="T14" s="57" t="n">
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="57"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="57"/>
+      <c r="P14" s="57"/>
+      <c r="Q14" s="57"/>
+      <c r="R14" s="57"/>
+      <c r="S14" s="57"/>
+      <c r="T14" s="58" t="n">
         <f aca="false">SUM(C14:S14)</f>
         <v>0</v>
       </c>
@@ -6420,28 +5999,28 @@
         <f aca="false">A14+7</f>
         <v>42338</v>
       </c>
-      <c r="B15" s="55" t="str">
+      <c r="B15" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A15,"jj mmm")," au ",TEXT(A15+6,"jj mmm"))</f>
         <v>30 nov au 06 déc</v>
       </c>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="56"/>
-      <c r="M15" s="56"/>
-      <c r="N15" s="56"/>
-      <c r="O15" s="56"/>
-      <c r="P15" s="56"/>
-      <c r="Q15" s="56"/>
-      <c r="R15" s="56"/>
-      <c r="S15" s="56"/>
-      <c r="T15" s="57" t="n">
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="57"/>
+      <c r="N15" s="57"/>
+      <c r="O15" s="57"/>
+      <c r="P15" s="57"/>
+      <c r="Q15" s="57"/>
+      <c r="R15" s="57"/>
+      <c r="S15" s="57"/>
+      <c r="T15" s="58" t="n">
         <f aca="false">SUM(C15:S15)</f>
         <v>0</v>
       </c>
@@ -6451,28 +6030,28 @@
         <f aca="false">A15+7</f>
         <v>42345</v>
       </c>
-      <c r="B16" s="55" t="str">
+      <c r="B16" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A16,"jj")," au ",TEXT(A16+6,"jj mmm"))</f>
         <v>07 au 13 déc.</v>
       </c>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="56"/>
-      <c r="O16" s="56"/>
-      <c r="P16" s="56"/>
-      <c r="Q16" s="56"/>
-      <c r="R16" s="56"/>
-      <c r="S16" s="56"/>
-      <c r="T16" s="57" t="n">
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="57"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="57"/>
+      <c r="P16" s="57"/>
+      <c r="Q16" s="57"/>
+      <c r="R16" s="57"/>
+      <c r="S16" s="57"/>
+      <c r="T16" s="58" t="n">
         <f aca="false">SUM(C16:S16)</f>
         <v>0</v>
       </c>
@@ -6482,28 +6061,28 @@
         <f aca="false">A16+7</f>
         <v>42352</v>
       </c>
-      <c r="B17" s="55" t="str">
+      <c r="B17" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A17,"jj")," au ",TEXT(A17+6,"jj mmm"))</f>
         <v>14 au 20 déc.</v>
       </c>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="56"/>
-      <c r="M17" s="56"/>
-      <c r="N17" s="56"/>
-      <c r="O17" s="56"/>
-      <c r="P17" s="56"/>
-      <c r="Q17" s="56"/>
-      <c r="R17" s="56"/>
-      <c r="S17" s="56"/>
-      <c r="T17" s="57" t="n">
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="57"/>
+      <c r="N17" s="57"/>
+      <c r="O17" s="57"/>
+      <c r="P17" s="57"/>
+      <c r="Q17" s="57"/>
+      <c r="R17" s="57"/>
+      <c r="S17" s="57"/>
+      <c r="T17" s="58" t="n">
         <f aca="false">SUM(C17:S17)</f>
         <v>0</v>
       </c>
@@ -6513,28 +6092,28 @@
         <f aca="false">A17+7</f>
         <v>42359</v>
       </c>
-      <c r="B18" s="55" t="str">
+      <c r="B18" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A18,"jj")," au ",TEXT(A18+6,"jj mmm"))</f>
         <v>21 au 27 déc.</v>
       </c>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="56"/>
-      <c r="O18" s="56"/>
-      <c r="P18" s="56"/>
-      <c r="Q18" s="56"/>
-      <c r="R18" s="56"/>
-      <c r="S18" s="56"/>
-      <c r="T18" s="57" t="n">
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="57"/>
+      <c r="M18" s="57"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="57"/>
+      <c r="P18" s="57"/>
+      <c r="Q18" s="57"/>
+      <c r="R18" s="57"/>
+      <c r="S18" s="57"/>
+      <c r="T18" s="58" t="n">
         <f aca="false">SUM(C18:S18)</f>
         <v>0</v>
       </c>
@@ -6544,28 +6123,28 @@
         <f aca="false">A18+7</f>
         <v>42366</v>
       </c>
-      <c r="B19" s="55" t="str">
+      <c r="B19" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A19,"jj mmm")," au ",TEXT(A19+6,"jj mmm"))</f>
         <v>28 déc au 03 janv</v>
       </c>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="56"/>
-      <c r="L19" s="56"/>
-      <c r="M19" s="56"/>
-      <c r="N19" s="56"/>
-      <c r="O19" s="56"/>
-      <c r="P19" s="56"/>
-      <c r="Q19" s="56"/>
-      <c r="R19" s="56"/>
-      <c r="S19" s="56"/>
-      <c r="T19" s="57" t="n">
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="57"/>
+      <c r="N19" s="57"/>
+      <c r="O19" s="57"/>
+      <c r="P19" s="57"/>
+      <c r="Q19" s="57"/>
+      <c r="R19" s="57"/>
+      <c r="S19" s="57"/>
+      <c r="T19" s="58" t="n">
         <f aca="false">SUM(C19:S19)</f>
         <v>0</v>
       </c>
@@ -6575,133 +6154,133 @@
         <f aca="false">A19+7</f>
         <v>42373</v>
       </c>
-      <c r="B20" s="55" t="str">
+      <c r="B20" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A20,"jj")," au ",TEXT(A20+6,"jj mmm"))</f>
         <v>04 au 10 janv.</v>
       </c>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="56"/>
-      <c r="O20" s="56"/>
-      <c r="P20" s="56"/>
-      <c r="Q20" s="56"/>
-      <c r="R20" s="56"/>
-      <c r="S20" s="56"/>
-      <c r="T20" s="57" t="n">
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="57"/>
+      <c r="M20" s="57"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="57"/>
+      <c r="P20" s="57"/>
+      <c r="Q20" s="57"/>
+      <c r="R20" s="57"/>
+      <c r="S20" s="57"/>
+      <c r="T20" s="58" t="n">
         <f aca="false">SUM(C20:S20)</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="58" t="s">
+      <c r="B21" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="57" t="n">
+      <c r="C21" s="58" t="n">
         <f aca="false">SUM(C3:C20)</f>
         <v>0</v>
       </c>
-      <c r="D21" s="57" t="n">
+      <c r="D21" s="58" t="n">
         <f aca="false">SUM(D3:D20)</f>
         <v>0</v>
       </c>
-      <c r="E21" s="57" t="n">
+      <c r="E21" s="58" t="n">
         <f aca="false">SUM(E3:E20)</f>
         <v>0</v>
       </c>
-      <c r="F21" s="57" t="n">
+      <c r="F21" s="58" t="n">
         <f aca="false">SUM(F3:F20)</f>
         <v>0</v>
       </c>
-      <c r="G21" s="57" t="n">
+      <c r="G21" s="58" t="n">
         <f aca="false">SUM(G3:G20)</f>
-        <v>0.0625</v>
-      </c>
-      <c r="H21" s="57" t="n">
+        <v>0.291666666666667</v>
+      </c>
+      <c r="H21" s="58" t="n">
         <f aca="false">SUM(H3:H20)</f>
-        <v>0</v>
-      </c>
-      <c r="I21" s="57" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I21" s="58" t="n">
         <f aca="false">SUM(I3:I20)</f>
         <v>0</v>
       </c>
-      <c r="J21" s="57" t="n">
+      <c r="J21" s="58" t="n">
         <f aca="false">SUM(J3:J20)</f>
         <v>0</v>
       </c>
-      <c r="K21" s="57" t="n">
+      <c r="K21" s="58" t="n">
         <f aca="false">SUM(K3:K20)</f>
         <v>0</v>
       </c>
-      <c r="L21" s="57" t="n">
+      <c r="L21" s="58" t="n">
         <f aca="false">SUM(L3:L20)</f>
         <v>0</v>
       </c>
-      <c r="M21" s="57" t="n">
+      <c r="M21" s="58" t="n">
         <f aca="false">SUM(M3:M20)</f>
         <v>0</v>
       </c>
-      <c r="N21" s="57" t="n">
+      <c r="N21" s="58" t="n">
         <f aca="false">SUM(N3:N20)</f>
         <v>0</v>
       </c>
-      <c r="O21" s="57" t="n">
+      <c r="O21" s="58" t="n">
         <f aca="false">SUM(O3:O20)</f>
         <v>0</v>
       </c>
-      <c r="P21" s="57" t="n">
+      <c r="P21" s="58" t="n">
         <f aca="false">SUM(P3:P20)</f>
         <v>0</v>
       </c>
-      <c r="Q21" s="57" t="n">
+      <c r="Q21" s="58" t="n">
         <f aca="false">SUM(Q3:Q20)</f>
         <v>0</v>
       </c>
-      <c r="R21" s="57" t="n">
+      <c r="R21" s="58" t="n">
         <f aca="false">SUM(R3:R20)</f>
         <v>0</v>
       </c>
-      <c r="S21" s="57" t="n">
+      <c r="S21" s="58" t="n">
         <f aca="false">SUM(S3:S20)</f>
         <v>0</v>
       </c>
-      <c r="T21" s="59" t="n">
+      <c r="T21" s="60" t="n">
         <f aca="false">SUM(T3:T20)</f>
-        <v>0.0625</v>
+        <v>0.416666666666667</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="49"/>
-      <c r="J23" s="49"/>
-      <c r="K23" s="49"/>
-      <c r="L23" s="49"/>
-      <c r="M23" s="49"/>
-      <c r="N23" s="49"/>
-      <c r="O23" s="49"/>
-      <c r="P23" s="49"/>
-      <c r="Q23" s="49"/>
-      <c r="R23" s="49"/>
-      <c r="S23" s="49"/>
-      <c r="T23" s="49"/>
+        <v>32</v>
+      </c>
+      <c r="C23" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="50"/>
+      <c r="M23" s="50"/>
+      <c r="N23" s="50"/>
+      <c r="O23" s="50"/>
+      <c r="P23" s="50"/>
+      <c r="Q23" s="50"/>
+      <c r="R23" s="50"/>
+      <c r="S23" s="50"/>
+      <c r="T23" s="50"/>
     </row>
   </sheetData>
   <sheetProtection sheet="true" password="deee" objects="true" scenarios="true"/>
@@ -6732,137 +6311,137 @@
   <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
+      <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.8520408163265"/>
-    <col collapsed="false" hidden="false" max="19" min="3" style="0" width="6.57142857142857"/>
-    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="10.5765306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.8542510121457"/>
+    <col collapsed="false" hidden="false" max="19" min="3" style="0" width="6.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="10.5748987854251"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="51" t="s">
+      <c r="B1" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51" t="s">
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51" t="s">
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51" t="s">
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="R1" s="51"/>
-      <c r="S1" s="52" t="s">
+      <c r="R1" s="52"/>
+      <c r="S1" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="T1" s="53" t="s">
+      <c r="T1" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="90" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="50"/>
-      <c r="C2" s="54" t="s">
+      <c r="B2" s="51"/>
+      <c r="C2" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="54" t="s">
+      <c r="D2" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="54" t="s">
+      <c r="E2" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="54" t="s">
+      <c r="F2" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="54" t="s">
+      <c r="G2" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="54" t="s">
+      <c r="H2" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="54" t="s">
+      <c r="I2" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="54" t="s">
+      <c r="J2" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="54" t="s">
+      <c r="K2" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="54" t="s">
+      <c r="L2" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="54" t="s">
+      <c r="M2" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="54" t="s">
+      <c r="N2" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="54" t="s">
+      <c r="O2" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="P2" s="54" t="s">
+      <c r="P2" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="Q2" s="54" t="s">
+      <c r="Q2" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="R2" s="54" t="s">
+      <c r="R2" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="S2" s="54" t="s">
+      <c r="S2" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="T2" s="53"/>
+      <c r="T2" s="54"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="21" t="n">
         <v>42254</v>
       </c>
-      <c r="B3" s="55" t="str">
+      <c r="B3" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A3,"jj")," au ",TEXT(A3+6,"jj mmm"))</f>
         <v>07 au 13 sept</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56" t="n">
-        <v>0.0625</v>
-      </c>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="56"/>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="56"/>
-      <c r="S3" s="56"/>
-      <c r="T3" s="57" t="n">
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57" t="n">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="57"/>
+      <c r="R3" s="57"/>
+      <c r="S3" s="57"/>
+      <c r="T3" s="58" t="n">
         <f aca="false">SUM(C3:S3)</f>
-        <v>0.0625</v>
+        <v>0.166666666666667</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6870,30 +6449,34 @@
         <f aca="false">A3+7</f>
         <v>42261</v>
       </c>
-      <c r="B4" s="55" t="str">
+      <c r="B4" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A4,"jj")," au ",TEXT(A4+6,"jj mmm"))</f>
         <v>14 au 20 sept.</v>
       </c>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
-      <c r="P4" s="56"/>
-      <c r="Q4" s="56"/>
-      <c r="R4" s="56"/>
-      <c r="S4" s="56"/>
-      <c r="T4" s="57" t="n">
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H4" s="57" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="57"/>
+      <c r="S4" s="57"/>
+      <c r="T4" s="58" t="n">
         <f aca="false">SUM(C4:S4)</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6901,28 +6484,28 @@
         <f aca="false">A4+7</f>
         <v>42268</v>
       </c>
-      <c r="B5" s="55" t="str">
+      <c r="B5" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A5,"jj")," au ",TEXT(A5+6,"jj mmm"))</f>
         <v>21 au 27 sept.</v>
       </c>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="56"/>
-      <c r="M5" s="56"/>
-      <c r="N5" s="56"/>
-      <c r="O5" s="56"/>
-      <c r="P5" s="56"/>
-      <c r="Q5" s="56"/>
-      <c r="R5" s="56"/>
-      <c r="S5" s="56"/>
-      <c r="T5" s="57" t="n">
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="57"/>
+      <c r="O5" s="57"/>
+      <c r="P5" s="57"/>
+      <c r="Q5" s="57"/>
+      <c r="R5" s="57"/>
+      <c r="S5" s="57"/>
+      <c r="T5" s="58" t="n">
         <f aca="false">SUM(C5:S5)</f>
         <v>0</v>
       </c>
@@ -6932,28 +6515,28 @@
         <f aca="false">A5+7</f>
         <v>42275</v>
       </c>
-      <c r="B6" s="55" t="str">
+      <c r="B6" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A6,"jj mmm")," au ",TEXT(A6+6,"jj mmm"))</f>
         <v>28 sept au 04 oct</v>
       </c>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="56"/>
-      <c r="P6" s="56"/>
-      <c r="Q6" s="56"/>
-      <c r="R6" s="56"/>
-      <c r="S6" s="56"/>
-      <c r="T6" s="57" t="n">
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="57"/>
+      <c r="P6" s="57"/>
+      <c r="Q6" s="57"/>
+      <c r="R6" s="57"/>
+      <c r="S6" s="57"/>
+      <c r="T6" s="58" t="n">
         <f aca="false">SUM(C6:S6)</f>
         <v>0</v>
       </c>
@@ -6963,28 +6546,28 @@
         <f aca="false">A6+7</f>
         <v>42282</v>
       </c>
-      <c r="B7" s="55" t="str">
+      <c r="B7" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A7,"jj")," au ",TEXT(A7+6,"jj mmm"))</f>
         <v>05 au 11 oct.</v>
       </c>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="56"/>
-      <c r="N7" s="56"/>
-      <c r="O7" s="56"/>
-      <c r="P7" s="56"/>
-      <c r="Q7" s="56"/>
-      <c r="R7" s="56"/>
-      <c r="S7" s="56"/>
-      <c r="T7" s="57" t="n">
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="57"/>
+      <c r="O7" s="57"/>
+      <c r="P7" s="57"/>
+      <c r="Q7" s="57"/>
+      <c r="R7" s="57"/>
+      <c r="S7" s="57"/>
+      <c r="T7" s="58" t="n">
         <f aca="false">SUM(C7:S7)</f>
         <v>0</v>
       </c>
@@ -6994,28 +6577,28 @@
         <f aca="false">A7+7</f>
         <v>42289</v>
       </c>
-      <c r="B8" s="55" t="str">
+      <c r="B8" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A8,"jj")," au ",TEXT(A8+6,"jj mmm"))</f>
         <v>12 au 18 oct.</v>
       </c>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="56"/>
-      <c r="M8" s="56"/>
-      <c r="N8" s="56"/>
-      <c r="O8" s="56"/>
-      <c r="P8" s="56"/>
-      <c r="Q8" s="56"/>
-      <c r="R8" s="56"/>
-      <c r="S8" s="56"/>
-      <c r="T8" s="57" t="n">
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="57"/>
+      <c r="P8" s="57"/>
+      <c r="Q8" s="57"/>
+      <c r="R8" s="57"/>
+      <c r="S8" s="57"/>
+      <c r="T8" s="58" t="n">
         <f aca="false">SUM(C8:S8)</f>
         <v>0</v>
       </c>
@@ -7025,28 +6608,28 @@
         <f aca="false">A8+7</f>
         <v>42296</v>
       </c>
-      <c r="B9" s="55" t="str">
+      <c r="B9" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A9,"jj")," au ",TEXT(A9+6,"jj mmm"))</f>
         <v>19 au 25 oct.</v>
       </c>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="56"/>
-      <c r="M9" s="56"/>
-      <c r="N9" s="56"/>
-      <c r="O9" s="56"/>
-      <c r="P9" s="56"/>
-      <c r="Q9" s="56"/>
-      <c r="R9" s="56"/>
-      <c r="S9" s="56"/>
-      <c r="T9" s="57" t="n">
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="57"/>
+      <c r="O9" s="57"/>
+      <c r="P9" s="57"/>
+      <c r="Q9" s="57"/>
+      <c r="R9" s="57"/>
+      <c r="S9" s="57"/>
+      <c r="T9" s="58" t="n">
         <f aca="false">SUM(C9:S9)</f>
         <v>0</v>
       </c>
@@ -7056,28 +6639,28 @@
         <f aca="false">A9+7</f>
         <v>42303</v>
       </c>
-      <c r="B10" s="55" t="str">
+      <c r="B10" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A10,"jj mmm")," au ",TEXT(A10+6,"jj mmm"))</f>
         <v>26 oct au 01 nov</v>
       </c>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="56"/>
-      <c r="M10" s="56"/>
-      <c r="N10" s="56"/>
-      <c r="O10" s="56"/>
-      <c r="P10" s="56"/>
-      <c r="Q10" s="56"/>
-      <c r="R10" s="56"/>
-      <c r="S10" s="56"/>
-      <c r="T10" s="57" t="n">
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="57"/>
+      <c r="N10" s="57"/>
+      <c r="O10" s="57"/>
+      <c r="P10" s="57"/>
+      <c r="Q10" s="57"/>
+      <c r="R10" s="57"/>
+      <c r="S10" s="57"/>
+      <c r="T10" s="58" t="n">
         <f aca="false">SUM(C10:S10)</f>
         <v>0</v>
       </c>
@@ -7087,28 +6670,28 @@
         <f aca="false">A10+7</f>
         <v>42310</v>
       </c>
-      <c r="B11" s="55" t="str">
+      <c r="B11" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A11,"jj")," au ",TEXT(A11+6,"jj mmm"))</f>
         <v>02 au 08 nov.</v>
       </c>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="56"/>
-      <c r="M11" s="56"/>
-      <c r="N11" s="56"/>
-      <c r="O11" s="56"/>
-      <c r="P11" s="56"/>
-      <c r="Q11" s="56"/>
-      <c r="R11" s="56"/>
-      <c r="S11" s="56"/>
-      <c r="T11" s="57" t="n">
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="57"/>
+      <c r="O11" s="57"/>
+      <c r="P11" s="57"/>
+      <c r="Q11" s="57"/>
+      <c r="R11" s="57"/>
+      <c r="S11" s="57"/>
+      <c r="T11" s="58" t="n">
         <f aca="false">SUM(C11:S11)</f>
         <v>0</v>
       </c>
@@ -7118,28 +6701,28 @@
         <f aca="false">A11+7</f>
         <v>42317</v>
       </c>
-      <c r="B12" s="55" t="str">
+      <c r="B12" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A12,"jj")," au ",TEXT(A12+6,"jj mmm"))</f>
         <v>09 au 15 nov.</v>
       </c>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="56"/>
-      <c r="O12" s="56"/>
-      <c r="P12" s="56"/>
-      <c r="Q12" s="56"/>
-      <c r="R12" s="56"/>
-      <c r="S12" s="56"/>
-      <c r="T12" s="57" t="n">
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="57"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="57"/>
+      <c r="P12" s="57"/>
+      <c r="Q12" s="57"/>
+      <c r="R12" s="57"/>
+      <c r="S12" s="57"/>
+      <c r="T12" s="58" t="n">
         <f aca="false">SUM(C12:S12)</f>
         <v>0</v>
       </c>
@@ -7149,28 +6732,28 @@
         <f aca="false">A12+7</f>
         <v>42324</v>
       </c>
-      <c r="B13" s="55" t="str">
+      <c r="B13" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A13,"jj")," au ",TEXT(A13+6,"jj mmm"))</f>
         <v>16 au 22 nov.</v>
       </c>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="56"/>
-      <c r="M13" s="56"/>
-      <c r="N13" s="56"/>
-      <c r="O13" s="56"/>
-      <c r="P13" s="56"/>
-      <c r="Q13" s="56"/>
-      <c r="R13" s="56"/>
-      <c r="S13" s="56"/>
-      <c r="T13" s="57" t="n">
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="57"/>
+      <c r="M13" s="57"/>
+      <c r="N13" s="57"/>
+      <c r="O13" s="57"/>
+      <c r="P13" s="57"/>
+      <c r="Q13" s="57"/>
+      <c r="R13" s="57"/>
+      <c r="S13" s="57"/>
+      <c r="T13" s="58" t="n">
         <f aca="false">SUM(C13:S13)</f>
         <v>0</v>
       </c>
@@ -7180,28 +6763,28 @@
         <f aca="false">A13+7</f>
         <v>42331</v>
       </c>
-      <c r="B14" s="55" t="str">
+      <c r="B14" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A14,"jj")," au ",TEXT(A14+6,"jj mmm"))</f>
         <v>23 au 29 nov.</v>
       </c>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="56"/>
-      <c r="O14" s="56"/>
-      <c r="P14" s="56"/>
-      <c r="Q14" s="56"/>
-      <c r="R14" s="56"/>
-      <c r="S14" s="56"/>
-      <c r="T14" s="57" t="n">
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="57"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="57"/>
+      <c r="P14" s="57"/>
+      <c r="Q14" s="57"/>
+      <c r="R14" s="57"/>
+      <c r="S14" s="57"/>
+      <c r="T14" s="58" t="n">
         <f aca="false">SUM(C14:S14)</f>
         <v>0</v>
       </c>
@@ -7211,28 +6794,28 @@
         <f aca="false">A14+7</f>
         <v>42338</v>
       </c>
-      <c r="B15" s="55" t="str">
+      <c r="B15" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A15,"jj mmm")," au ",TEXT(A15+6,"jj mmm"))</f>
         <v>30 nov au 06 déc</v>
       </c>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="56"/>
-      <c r="M15" s="56"/>
-      <c r="N15" s="56"/>
-      <c r="O15" s="56"/>
-      <c r="P15" s="56"/>
-      <c r="Q15" s="56"/>
-      <c r="R15" s="56"/>
-      <c r="S15" s="56"/>
-      <c r="T15" s="57" t="n">
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="57"/>
+      <c r="N15" s="57"/>
+      <c r="O15" s="57"/>
+      <c r="P15" s="57"/>
+      <c r="Q15" s="57"/>
+      <c r="R15" s="57"/>
+      <c r="S15" s="57"/>
+      <c r="T15" s="58" t="n">
         <f aca="false">SUM(C15:S15)</f>
         <v>0</v>
       </c>
@@ -7242,28 +6825,28 @@
         <f aca="false">A15+7</f>
         <v>42345</v>
       </c>
-      <c r="B16" s="55" t="str">
+      <c r="B16" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A16,"jj")," au ",TEXT(A16+6,"jj mmm"))</f>
         <v>07 au 13 déc.</v>
       </c>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="56"/>
-      <c r="O16" s="56"/>
-      <c r="P16" s="56"/>
-      <c r="Q16" s="56"/>
-      <c r="R16" s="56"/>
-      <c r="S16" s="56"/>
-      <c r="T16" s="57" t="n">
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="57"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="57"/>
+      <c r="P16" s="57"/>
+      <c r="Q16" s="57"/>
+      <c r="R16" s="57"/>
+      <c r="S16" s="57"/>
+      <c r="T16" s="58" t="n">
         <f aca="false">SUM(C16:S16)</f>
         <v>0</v>
       </c>
@@ -7273,28 +6856,28 @@
         <f aca="false">A16+7</f>
         <v>42352</v>
       </c>
-      <c r="B17" s="55" t="str">
+      <c r="B17" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A17,"jj")," au ",TEXT(A17+6,"jj mmm"))</f>
         <v>14 au 20 déc.</v>
       </c>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="56"/>
-      <c r="M17" s="56"/>
-      <c r="N17" s="56"/>
-      <c r="O17" s="56"/>
-      <c r="P17" s="56"/>
-      <c r="Q17" s="56"/>
-      <c r="R17" s="56"/>
-      <c r="S17" s="56"/>
-      <c r="T17" s="57" t="n">
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="57"/>
+      <c r="N17" s="57"/>
+      <c r="O17" s="57"/>
+      <c r="P17" s="57"/>
+      <c r="Q17" s="57"/>
+      <c r="R17" s="57"/>
+      <c r="S17" s="57"/>
+      <c r="T17" s="58" t="n">
         <f aca="false">SUM(C17:S17)</f>
         <v>0</v>
       </c>
@@ -7304,28 +6887,28 @@
         <f aca="false">A17+7</f>
         <v>42359</v>
       </c>
-      <c r="B18" s="55" t="str">
+      <c r="B18" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A18,"jj")," au ",TEXT(A18+6,"jj mmm"))</f>
         <v>21 au 27 déc.</v>
       </c>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="56"/>
-      <c r="O18" s="56"/>
-      <c r="P18" s="56"/>
-      <c r="Q18" s="56"/>
-      <c r="R18" s="56"/>
-      <c r="S18" s="56"/>
-      <c r="T18" s="57" t="n">
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="57"/>
+      <c r="M18" s="57"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="57"/>
+      <c r="P18" s="57"/>
+      <c r="Q18" s="57"/>
+      <c r="R18" s="57"/>
+      <c r="S18" s="57"/>
+      <c r="T18" s="58" t="n">
         <f aca="false">SUM(C18:S18)</f>
         <v>0</v>
       </c>
@@ -7335,28 +6918,28 @@
         <f aca="false">A18+7</f>
         <v>42366</v>
       </c>
-      <c r="B19" s="55" t="str">
+      <c r="B19" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A19,"jj mmm")," au ",TEXT(A19+6,"jj mmm"))</f>
         <v>28 déc au 03 janv</v>
       </c>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="56"/>
-      <c r="L19" s="56"/>
-      <c r="M19" s="56"/>
-      <c r="N19" s="56"/>
-      <c r="O19" s="56"/>
-      <c r="P19" s="56"/>
-      <c r="Q19" s="56"/>
-      <c r="R19" s="56"/>
-      <c r="S19" s="56"/>
-      <c r="T19" s="57" t="n">
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="57"/>
+      <c r="N19" s="57"/>
+      <c r="O19" s="57"/>
+      <c r="P19" s="57"/>
+      <c r="Q19" s="57"/>
+      <c r="R19" s="57"/>
+      <c r="S19" s="57"/>
+      <c r="T19" s="58" t="n">
         <f aca="false">SUM(C19:S19)</f>
         <v>0</v>
       </c>
@@ -7366,133 +6949,133 @@
         <f aca="false">A19+7</f>
         <v>42373</v>
       </c>
-      <c r="B20" s="55" t="str">
+      <c r="B20" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A20,"jj")," au ",TEXT(A20+6,"jj mmm"))</f>
         <v>04 au 10 janv.</v>
       </c>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="56"/>
-      <c r="O20" s="56"/>
-      <c r="P20" s="56"/>
-      <c r="Q20" s="56"/>
-      <c r="R20" s="56"/>
-      <c r="S20" s="56"/>
-      <c r="T20" s="57" t="n">
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="57"/>
+      <c r="M20" s="57"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="57"/>
+      <c r="P20" s="57"/>
+      <c r="Q20" s="57"/>
+      <c r="R20" s="57"/>
+      <c r="S20" s="57"/>
+      <c r="T20" s="58" t="n">
         <f aca="false">SUM(C20:S20)</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="58" t="s">
+      <c r="B21" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="57" t="n">
+      <c r="C21" s="58" t="n">
         <f aca="false">SUM(C3:C20)</f>
         <v>0</v>
       </c>
-      <c r="D21" s="57" t="n">
+      <c r="D21" s="58" t="n">
         <f aca="false">SUM(D3:D20)</f>
         <v>0</v>
       </c>
-      <c r="E21" s="57" t="n">
+      <c r="E21" s="58" t="n">
         <f aca="false">SUM(E3:E20)</f>
         <v>0</v>
       </c>
-      <c r="F21" s="57" t="n">
+      <c r="F21" s="58" t="n">
         <f aca="false">SUM(F3:F20)</f>
         <v>0</v>
       </c>
-      <c r="G21" s="57" t="n">
+      <c r="G21" s="58" t="n">
         <f aca="false">SUM(G3:G20)</f>
-        <v>0.0625</v>
-      </c>
-      <c r="H21" s="57" t="n">
+        <v>0.291666666666667</v>
+      </c>
+      <c r="H21" s="58" t="n">
         <f aca="false">SUM(H3:H20)</f>
-        <v>0</v>
-      </c>
-      <c r="I21" s="57" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I21" s="58" t="n">
         <f aca="false">SUM(I3:I20)</f>
         <v>0</v>
       </c>
-      <c r="J21" s="57" t="n">
+      <c r="J21" s="58" t="n">
         <f aca="false">SUM(J3:J20)</f>
         <v>0</v>
       </c>
-      <c r="K21" s="57" t="n">
+      <c r="K21" s="58" t="n">
         <f aca="false">SUM(K3:K20)</f>
         <v>0</v>
       </c>
-      <c r="L21" s="57" t="n">
+      <c r="L21" s="58" t="n">
         <f aca="false">SUM(L3:L20)</f>
         <v>0</v>
       </c>
-      <c r="M21" s="57" t="n">
+      <c r="M21" s="58" t="n">
         <f aca="false">SUM(M3:M20)</f>
         <v>0</v>
       </c>
-      <c r="N21" s="57" t="n">
+      <c r="N21" s="58" t="n">
         <f aca="false">SUM(N3:N20)</f>
         <v>0</v>
       </c>
-      <c r="O21" s="57" t="n">
+      <c r="O21" s="58" t="n">
         <f aca="false">SUM(O3:O20)</f>
         <v>0</v>
       </c>
-      <c r="P21" s="57" t="n">
+      <c r="P21" s="58" t="n">
         <f aca="false">SUM(P3:P20)</f>
         <v>0</v>
       </c>
-      <c r="Q21" s="57" t="n">
+      <c r="Q21" s="58" t="n">
         <f aca="false">SUM(Q3:Q20)</f>
         <v>0</v>
       </c>
-      <c r="R21" s="57" t="n">
+      <c r="R21" s="58" t="n">
         <f aca="false">SUM(R3:R20)</f>
         <v>0</v>
       </c>
-      <c r="S21" s="57" t="n">
+      <c r="S21" s="58" t="n">
         <f aca="false">SUM(S3:S20)</f>
         <v>0</v>
       </c>
-      <c r="T21" s="59" t="n">
+      <c r="T21" s="60" t="n">
         <f aca="false">SUM(T3:T20)</f>
-        <v>0.0625</v>
+        <v>0.416666666666667</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="49"/>
-      <c r="J23" s="49"/>
-      <c r="K23" s="49"/>
-      <c r="L23" s="49"/>
-      <c r="M23" s="49"/>
-      <c r="N23" s="49"/>
-      <c r="O23" s="49"/>
-      <c r="P23" s="49"/>
-      <c r="Q23" s="49"/>
-      <c r="R23" s="49"/>
-      <c r="S23" s="49"/>
-      <c r="T23" s="49"/>
+        <v>32</v>
+      </c>
+      <c r="C23" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="50"/>
+      <c r="M23" s="50"/>
+      <c r="N23" s="50"/>
+      <c r="O23" s="50"/>
+      <c r="P23" s="50"/>
+      <c r="Q23" s="50"/>
+      <c r="R23" s="50"/>
+      <c r="S23" s="50"/>
+      <c r="T23" s="50"/>
     </row>
   </sheetData>
   <sheetProtection sheet="true" password="deee" objects="true" scenarios="true"/>
@@ -7523,137 +7106,137 @@
   <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
+      <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.8520408163265"/>
-    <col collapsed="false" hidden="false" max="19" min="3" style="0" width="6.57142857142857"/>
-    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="10.5765306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.8542510121457"/>
+    <col collapsed="false" hidden="false" max="19" min="3" style="0" width="6.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="10.5748987854251"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="51" t="s">
+      <c r="B1" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51" t="s">
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51" t="s">
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51" t="s">
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="R1" s="51"/>
-      <c r="S1" s="52" t="s">
+      <c r="R1" s="52"/>
+      <c r="S1" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="T1" s="53" t="s">
+      <c r="T1" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="90" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="50"/>
-      <c r="C2" s="54" t="s">
+      <c r="B2" s="51"/>
+      <c r="C2" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="54" t="s">
+      <c r="D2" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="54" t="s">
+      <c r="E2" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="54" t="s">
+      <c r="F2" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="54" t="s">
+      <c r="G2" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="54" t="s">
+      <c r="H2" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="54" t="s">
+      <c r="I2" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="54" t="s">
+      <c r="J2" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="54" t="s">
+      <c r="K2" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="54" t="s">
+      <c r="L2" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="54" t="s">
+      <c r="M2" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="54" t="s">
+      <c r="N2" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="54" t="s">
+      <c r="O2" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="P2" s="54" t="s">
+      <c r="P2" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="Q2" s="54" t="s">
+      <c r="Q2" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="R2" s="54" t="s">
+      <c r="R2" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="S2" s="54" t="s">
+      <c r="S2" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="T2" s="53"/>
+      <c r="T2" s="54"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="21" t="n">
         <v>42254</v>
       </c>
-      <c r="B3" s="55" t="str">
+      <c r="B3" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A3,"jj")," au ",TEXT(A3+6,"jj mmm"))</f>
         <v>07 au 13 sept</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56" t="n">
-        <v>0.0625</v>
-      </c>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="56"/>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="56"/>
-      <c r="S3" s="56"/>
-      <c r="T3" s="57" t="n">
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57" t="n">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="57"/>
+      <c r="R3" s="57"/>
+      <c r="S3" s="57"/>
+      <c r="T3" s="58" t="n">
         <f aca="false">SUM(C3:S3)</f>
-        <v>0.0625</v>
+        <v>0.166666666666667</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7661,30 +7244,34 @@
         <f aca="false">A3+7</f>
         <v>42261</v>
       </c>
-      <c r="B4" s="55" t="str">
+      <c r="B4" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A4,"jj")," au ",TEXT(A4+6,"jj mmm"))</f>
         <v>14 au 20 sept.</v>
       </c>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
-      <c r="P4" s="56"/>
-      <c r="Q4" s="56"/>
-      <c r="R4" s="56"/>
-      <c r="S4" s="56"/>
-      <c r="T4" s="57" t="n">
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57" t="n">
+        <v>0.1875</v>
+      </c>
+      <c r="H4" s="57" t="n">
+        <v>0.104166666666667</v>
+      </c>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="57"/>
+      <c r="S4" s="57"/>
+      <c r="T4" s="58" t="n">
         <f aca="false">SUM(C4:S4)</f>
-        <v>0</v>
+        <v>0.291666666666667</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7692,28 +7279,28 @@
         <f aca="false">A4+7</f>
         <v>42268</v>
       </c>
-      <c r="B5" s="55" t="str">
+      <c r="B5" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A5,"jj")," au ",TEXT(A5+6,"jj mmm"))</f>
         <v>21 au 27 sept.</v>
       </c>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="56"/>
-      <c r="M5" s="56"/>
-      <c r="N5" s="56"/>
-      <c r="O5" s="56"/>
-      <c r="P5" s="56"/>
-      <c r="Q5" s="56"/>
-      <c r="R5" s="56"/>
-      <c r="S5" s="56"/>
-      <c r="T5" s="57" t="n">
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="57"/>
+      <c r="O5" s="57"/>
+      <c r="P5" s="57"/>
+      <c r="Q5" s="57"/>
+      <c r="R5" s="57"/>
+      <c r="S5" s="57"/>
+      <c r="T5" s="58" t="n">
         <f aca="false">SUM(C5:S5)</f>
         <v>0</v>
       </c>
@@ -7723,28 +7310,28 @@
         <f aca="false">A5+7</f>
         <v>42275</v>
       </c>
-      <c r="B6" s="55" t="str">
+      <c r="B6" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A6,"jj mmm")," au ",TEXT(A6+6,"jj mmm"))</f>
         <v>28 sept au 04 oct</v>
       </c>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="56"/>
-      <c r="P6" s="56"/>
-      <c r="Q6" s="56"/>
-      <c r="R6" s="56"/>
-      <c r="S6" s="56"/>
-      <c r="T6" s="57" t="n">
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="57"/>
+      <c r="P6" s="57"/>
+      <c r="Q6" s="57"/>
+      <c r="R6" s="57"/>
+      <c r="S6" s="57"/>
+      <c r="T6" s="58" t="n">
         <f aca="false">SUM(C6:S6)</f>
         <v>0</v>
       </c>
@@ -7754,28 +7341,28 @@
         <f aca="false">A6+7</f>
         <v>42282</v>
       </c>
-      <c r="B7" s="55" t="str">
+      <c r="B7" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A7,"jj")," au ",TEXT(A7+6,"jj mmm"))</f>
         <v>05 au 11 oct.</v>
       </c>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="56"/>
-      <c r="N7" s="56"/>
-      <c r="O7" s="56"/>
-      <c r="P7" s="56"/>
-      <c r="Q7" s="56"/>
-      <c r="R7" s="56"/>
-      <c r="S7" s="56"/>
-      <c r="T7" s="57" t="n">
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="57"/>
+      <c r="O7" s="57"/>
+      <c r="P7" s="57"/>
+      <c r="Q7" s="57"/>
+      <c r="R7" s="57"/>
+      <c r="S7" s="57"/>
+      <c r="T7" s="58" t="n">
         <f aca="false">SUM(C7:S7)</f>
         <v>0</v>
       </c>
@@ -7785,28 +7372,28 @@
         <f aca="false">A7+7</f>
         <v>42289</v>
       </c>
-      <c r="B8" s="55" t="str">
+      <c r="B8" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A8,"jj")," au ",TEXT(A8+6,"jj mmm"))</f>
         <v>12 au 18 oct.</v>
       </c>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="56"/>
-      <c r="M8" s="56"/>
-      <c r="N8" s="56"/>
-      <c r="O8" s="56"/>
-      <c r="P8" s="56"/>
-      <c r="Q8" s="56"/>
-      <c r="R8" s="56"/>
-      <c r="S8" s="56"/>
-      <c r="T8" s="57" t="n">
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="57"/>
+      <c r="P8" s="57"/>
+      <c r="Q8" s="57"/>
+      <c r="R8" s="57"/>
+      <c r="S8" s="57"/>
+      <c r="T8" s="58" t="n">
         <f aca="false">SUM(C8:S8)</f>
         <v>0</v>
       </c>
@@ -7816,28 +7403,28 @@
         <f aca="false">A8+7</f>
         <v>42296</v>
       </c>
-      <c r="B9" s="55" t="str">
+      <c r="B9" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A9,"jj")," au ",TEXT(A9+6,"jj mmm"))</f>
         <v>19 au 25 oct.</v>
       </c>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="56"/>
-      <c r="M9" s="56"/>
-      <c r="N9" s="56"/>
-      <c r="O9" s="56"/>
-      <c r="P9" s="56"/>
-      <c r="Q9" s="56"/>
-      <c r="R9" s="56"/>
-      <c r="S9" s="56"/>
-      <c r="T9" s="57" t="n">
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="57"/>
+      <c r="O9" s="57"/>
+      <c r="P9" s="57"/>
+      <c r="Q9" s="57"/>
+      <c r="R9" s="57"/>
+      <c r="S9" s="57"/>
+      <c r="T9" s="58" t="n">
         <f aca="false">SUM(C9:S9)</f>
         <v>0</v>
       </c>
@@ -7847,28 +7434,28 @@
         <f aca="false">A9+7</f>
         <v>42303</v>
       </c>
-      <c r="B10" s="55" t="str">
+      <c r="B10" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A10,"jj mmm")," au ",TEXT(A10+6,"jj mmm"))</f>
         <v>26 oct au 01 nov</v>
       </c>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="56"/>
-      <c r="M10" s="56"/>
-      <c r="N10" s="56"/>
-      <c r="O10" s="56"/>
-      <c r="P10" s="56"/>
-      <c r="Q10" s="56"/>
-      <c r="R10" s="56"/>
-      <c r="S10" s="56"/>
-      <c r="T10" s="57" t="n">
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="57"/>
+      <c r="N10" s="57"/>
+      <c r="O10" s="57"/>
+      <c r="P10" s="57"/>
+      <c r="Q10" s="57"/>
+      <c r="R10" s="57"/>
+      <c r="S10" s="57"/>
+      <c r="T10" s="58" t="n">
         <f aca="false">SUM(C10:S10)</f>
         <v>0</v>
       </c>
@@ -7878,28 +7465,28 @@
         <f aca="false">A10+7</f>
         <v>42310</v>
       </c>
-      <c r="B11" s="55" t="str">
+      <c r="B11" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A11,"jj")," au ",TEXT(A11+6,"jj mmm"))</f>
         <v>02 au 08 nov.</v>
       </c>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="56"/>
-      <c r="M11" s="56"/>
-      <c r="N11" s="56"/>
-      <c r="O11" s="56"/>
-      <c r="P11" s="56"/>
-      <c r="Q11" s="56"/>
-      <c r="R11" s="56"/>
-      <c r="S11" s="56"/>
-      <c r="T11" s="57" t="n">
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="57"/>
+      <c r="O11" s="57"/>
+      <c r="P11" s="57"/>
+      <c r="Q11" s="57"/>
+      <c r="R11" s="57"/>
+      <c r="S11" s="57"/>
+      <c r="T11" s="58" t="n">
         <f aca="false">SUM(C11:S11)</f>
         <v>0</v>
       </c>
@@ -7909,28 +7496,28 @@
         <f aca="false">A11+7</f>
         <v>42317</v>
       </c>
-      <c r="B12" s="55" t="str">
+      <c r="B12" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A12,"jj")," au ",TEXT(A12+6,"jj mmm"))</f>
         <v>09 au 15 nov.</v>
       </c>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="56"/>
-      <c r="O12" s="56"/>
-      <c r="P12" s="56"/>
-      <c r="Q12" s="56"/>
-      <c r="R12" s="56"/>
-      <c r="S12" s="56"/>
-      <c r="T12" s="57" t="n">
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="57"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="57"/>
+      <c r="P12" s="57"/>
+      <c r="Q12" s="57"/>
+      <c r="R12" s="57"/>
+      <c r="S12" s="57"/>
+      <c r="T12" s="58" t="n">
         <f aca="false">SUM(C12:S12)</f>
         <v>0</v>
       </c>
@@ -7940,28 +7527,28 @@
         <f aca="false">A12+7</f>
         <v>42324</v>
       </c>
-      <c r="B13" s="55" t="str">
+      <c r="B13" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A13,"jj")," au ",TEXT(A13+6,"jj mmm"))</f>
         <v>16 au 22 nov.</v>
       </c>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="56"/>
-      <c r="M13" s="56"/>
-      <c r="N13" s="56"/>
-      <c r="O13" s="56"/>
-      <c r="P13" s="56"/>
-      <c r="Q13" s="56"/>
-      <c r="R13" s="56"/>
-      <c r="S13" s="56"/>
-      <c r="T13" s="57" t="n">
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="57"/>
+      <c r="M13" s="57"/>
+      <c r="N13" s="57"/>
+      <c r="O13" s="57"/>
+      <c r="P13" s="57"/>
+      <c r="Q13" s="57"/>
+      <c r="R13" s="57"/>
+      <c r="S13" s="57"/>
+      <c r="T13" s="58" t="n">
         <f aca="false">SUM(C13:S13)</f>
         <v>0</v>
       </c>
@@ -7971,28 +7558,28 @@
         <f aca="false">A13+7</f>
         <v>42331</v>
       </c>
-      <c r="B14" s="55" t="str">
+      <c r="B14" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A14,"jj")," au ",TEXT(A14+6,"jj mmm"))</f>
         <v>23 au 29 nov.</v>
       </c>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="56"/>
-      <c r="O14" s="56"/>
-      <c r="P14" s="56"/>
-      <c r="Q14" s="56"/>
-      <c r="R14" s="56"/>
-      <c r="S14" s="56"/>
-      <c r="T14" s="57" t="n">
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="57"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="57"/>
+      <c r="P14" s="57"/>
+      <c r="Q14" s="57"/>
+      <c r="R14" s="57"/>
+      <c r="S14" s="57"/>
+      <c r="T14" s="58" t="n">
         <f aca="false">SUM(C14:S14)</f>
         <v>0</v>
       </c>
@@ -8002,28 +7589,28 @@
         <f aca="false">A14+7</f>
         <v>42338</v>
       </c>
-      <c r="B15" s="55" t="str">
+      <c r="B15" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A15,"jj mmm")," au ",TEXT(A15+6,"jj mmm"))</f>
         <v>30 nov au 06 déc</v>
       </c>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="56"/>
-      <c r="M15" s="56"/>
-      <c r="N15" s="56"/>
-      <c r="O15" s="56"/>
-      <c r="P15" s="56"/>
-      <c r="Q15" s="56"/>
-      <c r="R15" s="56"/>
-      <c r="S15" s="56"/>
-      <c r="T15" s="57" t="n">
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="57"/>
+      <c r="N15" s="57"/>
+      <c r="O15" s="57"/>
+      <c r="P15" s="57"/>
+      <c r="Q15" s="57"/>
+      <c r="R15" s="57"/>
+      <c r="S15" s="57"/>
+      <c r="T15" s="58" t="n">
         <f aca="false">SUM(C15:S15)</f>
         <v>0</v>
       </c>
@@ -8033,28 +7620,28 @@
         <f aca="false">A15+7</f>
         <v>42345</v>
       </c>
-      <c r="B16" s="55" t="str">
+      <c r="B16" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A16,"jj")," au ",TEXT(A16+6,"jj mmm"))</f>
         <v>07 au 13 déc.</v>
       </c>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="56"/>
-      <c r="O16" s="56"/>
-      <c r="P16" s="56"/>
-      <c r="Q16" s="56"/>
-      <c r="R16" s="56"/>
-      <c r="S16" s="56"/>
-      <c r="T16" s="57" t="n">
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="57"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="57"/>
+      <c r="P16" s="57"/>
+      <c r="Q16" s="57"/>
+      <c r="R16" s="57"/>
+      <c r="S16" s="57"/>
+      <c r="T16" s="58" t="n">
         <f aca="false">SUM(C16:S16)</f>
         <v>0</v>
       </c>
@@ -8064,28 +7651,28 @@
         <f aca="false">A16+7</f>
         <v>42352</v>
       </c>
-      <c r="B17" s="55" t="str">
+      <c r="B17" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A17,"jj")," au ",TEXT(A17+6,"jj mmm"))</f>
         <v>14 au 20 déc.</v>
       </c>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="56"/>
-      <c r="M17" s="56"/>
-      <c r="N17" s="56"/>
-      <c r="O17" s="56"/>
-      <c r="P17" s="56"/>
-      <c r="Q17" s="56"/>
-      <c r="R17" s="56"/>
-      <c r="S17" s="56"/>
-      <c r="T17" s="57" t="n">
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="57"/>
+      <c r="N17" s="57"/>
+      <c r="O17" s="57"/>
+      <c r="P17" s="57"/>
+      <c r="Q17" s="57"/>
+      <c r="R17" s="57"/>
+      <c r="S17" s="57"/>
+      <c r="T17" s="58" t="n">
         <f aca="false">SUM(C17:S17)</f>
         <v>0</v>
       </c>
@@ -8095,28 +7682,28 @@
         <f aca="false">A17+7</f>
         <v>42359</v>
       </c>
-      <c r="B18" s="55" t="str">
+      <c r="B18" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A18,"jj")," au ",TEXT(A18+6,"jj mmm"))</f>
         <v>21 au 27 déc.</v>
       </c>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="56"/>
-      <c r="O18" s="56"/>
-      <c r="P18" s="56"/>
-      <c r="Q18" s="56"/>
-      <c r="R18" s="56"/>
-      <c r="S18" s="56"/>
-      <c r="T18" s="57" t="n">
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="57"/>
+      <c r="M18" s="57"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="57"/>
+      <c r="P18" s="57"/>
+      <c r="Q18" s="57"/>
+      <c r="R18" s="57"/>
+      <c r="S18" s="57"/>
+      <c r="T18" s="58" t="n">
         <f aca="false">SUM(C18:S18)</f>
         <v>0</v>
       </c>
@@ -8126,28 +7713,28 @@
         <f aca="false">A18+7</f>
         <v>42366</v>
       </c>
-      <c r="B19" s="55" t="str">
+      <c r="B19" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A19,"jj mmm")," au ",TEXT(A19+6,"jj mmm"))</f>
         <v>28 déc au 03 janv</v>
       </c>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="56"/>
-      <c r="L19" s="56"/>
-      <c r="M19" s="56"/>
-      <c r="N19" s="56"/>
-      <c r="O19" s="56"/>
-      <c r="P19" s="56"/>
-      <c r="Q19" s="56"/>
-      <c r="R19" s="56"/>
-      <c r="S19" s="56"/>
-      <c r="T19" s="57" t="n">
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="57"/>
+      <c r="N19" s="57"/>
+      <c r="O19" s="57"/>
+      <c r="P19" s="57"/>
+      <c r="Q19" s="57"/>
+      <c r="R19" s="57"/>
+      <c r="S19" s="57"/>
+      <c r="T19" s="58" t="n">
         <f aca="false">SUM(C19:S19)</f>
         <v>0</v>
       </c>
@@ -8157,133 +7744,133 @@
         <f aca="false">A19+7</f>
         <v>42373</v>
       </c>
-      <c r="B20" s="55" t="str">
+      <c r="B20" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A20,"jj")," au ",TEXT(A20+6,"jj mmm"))</f>
         <v>04 au 10 janv.</v>
       </c>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="56"/>
-      <c r="O20" s="56"/>
-      <c r="P20" s="56"/>
-      <c r="Q20" s="56"/>
-      <c r="R20" s="56"/>
-      <c r="S20" s="56"/>
-      <c r="T20" s="57" t="n">
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="57"/>
+      <c r="M20" s="57"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="57"/>
+      <c r="P20" s="57"/>
+      <c r="Q20" s="57"/>
+      <c r="R20" s="57"/>
+      <c r="S20" s="57"/>
+      <c r="T20" s="58" t="n">
         <f aca="false">SUM(C20:S20)</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="58" t="s">
+      <c r="B21" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="57" t="n">
+      <c r="C21" s="58" t="n">
         <f aca="false">SUM(C3:C20)</f>
         <v>0</v>
       </c>
-      <c r="D21" s="57" t="n">
+      <c r="D21" s="58" t="n">
         <f aca="false">SUM(D3:D20)</f>
         <v>0</v>
       </c>
-      <c r="E21" s="57" t="n">
+      <c r="E21" s="58" t="n">
         <f aca="false">SUM(E3:E20)</f>
         <v>0</v>
       </c>
-      <c r="F21" s="57" t="n">
+      <c r="F21" s="58" t="n">
         <f aca="false">SUM(F3:F20)</f>
         <v>0</v>
       </c>
-      <c r="G21" s="57" t="n">
+      <c r="G21" s="58" t="n">
         <f aca="false">SUM(G3:G20)</f>
-        <v>0.0625</v>
-      </c>
-      <c r="H21" s="57" t="n">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="H21" s="58" t="n">
         <f aca="false">SUM(H3:H20)</f>
-        <v>0</v>
-      </c>
-      <c r="I21" s="57" t="n">
+        <v>0.104166666666667</v>
+      </c>
+      <c r="I21" s="58" t="n">
         <f aca="false">SUM(I3:I20)</f>
         <v>0</v>
       </c>
-      <c r="J21" s="57" t="n">
+      <c r="J21" s="58" t="n">
         <f aca="false">SUM(J3:J20)</f>
         <v>0</v>
       </c>
-      <c r="K21" s="57" t="n">
+      <c r="K21" s="58" t="n">
         <f aca="false">SUM(K3:K20)</f>
         <v>0</v>
       </c>
-      <c r="L21" s="57" t="n">
+      <c r="L21" s="58" t="n">
         <f aca="false">SUM(L3:L20)</f>
         <v>0</v>
       </c>
-      <c r="M21" s="57" t="n">
+      <c r="M21" s="58" t="n">
         <f aca="false">SUM(M3:M20)</f>
         <v>0</v>
       </c>
-      <c r="N21" s="57" t="n">
+      <c r="N21" s="58" t="n">
         <f aca="false">SUM(N3:N20)</f>
         <v>0</v>
       </c>
-      <c r="O21" s="57" t="n">
+      <c r="O21" s="58" t="n">
         <f aca="false">SUM(O3:O20)</f>
         <v>0</v>
       </c>
-      <c r="P21" s="57" t="n">
+      <c r="P21" s="58" t="n">
         <f aca="false">SUM(P3:P20)</f>
         <v>0</v>
       </c>
-      <c r="Q21" s="57" t="n">
+      <c r="Q21" s="58" t="n">
         <f aca="false">SUM(Q3:Q20)</f>
         <v>0</v>
       </c>
-      <c r="R21" s="57" t="n">
+      <c r="R21" s="58" t="n">
         <f aca="false">SUM(R3:R20)</f>
         <v>0</v>
       </c>
-      <c r="S21" s="57" t="n">
+      <c r="S21" s="58" t="n">
         <f aca="false">SUM(S3:S20)</f>
         <v>0</v>
       </c>
-      <c r="T21" s="59" t="n">
+      <c r="T21" s="60" t="n">
         <f aca="false">SUM(T3:T20)</f>
-        <v>0.0625</v>
+        <v>0.458333333333333</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="49"/>
-      <c r="J23" s="49"/>
-      <c r="K23" s="49"/>
-      <c r="L23" s="49"/>
-      <c r="M23" s="49"/>
-      <c r="N23" s="49"/>
-      <c r="O23" s="49"/>
-      <c r="P23" s="49"/>
-      <c r="Q23" s="49"/>
-      <c r="R23" s="49"/>
-      <c r="S23" s="49"/>
-      <c r="T23" s="49"/>
+        <v>32</v>
+      </c>
+      <c r="C23" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="50"/>
+      <c r="M23" s="50"/>
+      <c r="N23" s="50"/>
+      <c r="O23" s="50"/>
+      <c r="P23" s="50"/>
+      <c r="Q23" s="50"/>
+      <c r="R23" s="50"/>
+      <c r="S23" s="50"/>
+      <c r="T23" s="50"/>
     </row>
   </sheetData>
   <sheetProtection sheet="true" password="deee" objects="true" scenarios="true"/>
@@ -8320,127 +7907,127 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.8520408163265"/>
-    <col collapsed="false" hidden="false" max="19" min="3" style="0" width="6.57142857142857"/>
-    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="10.5765306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.8542510121457"/>
+    <col collapsed="false" hidden="false" max="19" min="3" style="0" width="6.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="10.5748987854251"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="51" t="s">
+      <c r="B1" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51" t="s">
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51" t="s">
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51" t="s">
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="R1" s="51"/>
-      <c r="S1" s="52" t="s">
+      <c r="R1" s="52"/>
+      <c r="S1" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="T1" s="53" t="s">
+      <c r="T1" s="54" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="90" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="50"/>
-      <c r="C2" s="54" t="s">
+      <c r="B2" s="51"/>
+      <c r="C2" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="54" t="s">
+      <c r="D2" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="54" t="s">
+      <c r="E2" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="54" t="s">
+      <c r="F2" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="54" t="s">
+      <c r="G2" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="54" t="s">
+      <c r="H2" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="54" t="s">
+      <c r="I2" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="54" t="s">
+      <c r="J2" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="54" t="s">
+      <c r="K2" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="54" t="s">
+      <c r="L2" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="54" t="s">
+      <c r="M2" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="54" t="s">
+      <c r="N2" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="54" t="s">
+      <c r="O2" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="P2" s="54" t="s">
+      <c r="P2" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="Q2" s="54" t="s">
+      <c r="Q2" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="R2" s="54" t="s">
+      <c r="R2" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="S2" s="54" t="s">
+      <c r="S2" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="T2" s="53"/>
+      <c r="T2" s="54"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="21" t="n">
         <v>42254</v>
       </c>
-      <c r="B3" s="55" t="str">
+      <c r="B3" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A3,"jj")," au ",TEXT(A3+6,"jj mmm"))</f>
         <v>07 au 13 sept</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="56"/>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="56"/>
-      <c r="R3" s="56"/>
-      <c r="S3" s="56"/>
-      <c r="T3" s="57" t="n">
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="57"/>
+      <c r="R3" s="57"/>
+      <c r="S3" s="57"/>
+      <c r="T3" s="58" t="n">
         <f aca="false">SUM(C3:S3)</f>
         <v>0</v>
       </c>
@@ -8450,28 +8037,28 @@
         <f aca="false">A3+7</f>
         <v>42261</v>
       </c>
-      <c r="B4" s="55" t="str">
+      <c r="B4" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A4,"jj")," au ",TEXT(A4+6,"jj mmm"))</f>
         <v>14 au 20 sept.</v>
       </c>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="56"/>
-      <c r="P4" s="56"/>
-      <c r="Q4" s="56"/>
-      <c r="R4" s="56"/>
-      <c r="S4" s="56"/>
-      <c r="T4" s="57" t="n">
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="57"/>
+      <c r="S4" s="57"/>
+      <c r="T4" s="58" t="n">
         <f aca="false">SUM(C4:S4)</f>
         <v>0</v>
       </c>
@@ -8481,28 +8068,28 @@
         <f aca="false">A4+7</f>
         <v>42268</v>
       </c>
-      <c r="B5" s="55" t="str">
+      <c r="B5" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A5,"jj")," au ",TEXT(A5+6,"jj mmm"))</f>
         <v>21 au 27 sept.</v>
       </c>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="56"/>
-      <c r="M5" s="56"/>
-      <c r="N5" s="56"/>
-      <c r="O5" s="56"/>
-      <c r="P5" s="56"/>
-      <c r="Q5" s="56"/>
-      <c r="R5" s="56"/>
-      <c r="S5" s="56"/>
-      <c r="T5" s="57" t="n">
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="57"/>
+      <c r="O5" s="57"/>
+      <c r="P5" s="57"/>
+      <c r="Q5" s="57"/>
+      <c r="R5" s="57"/>
+      <c r="S5" s="57"/>
+      <c r="T5" s="58" t="n">
         <f aca="false">SUM(C5:S5)</f>
         <v>0</v>
       </c>
@@ -8512,28 +8099,28 @@
         <f aca="false">A5+7</f>
         <v>42275</v>
       </c>
-      <c r="B6" s="55" t="str">
+      <c r="B6" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A6,"jj mmm")," au ",TEXT(A6+6,"jj mmm"))</f>
         <v>28 sept au 04 oct</v>
       </c>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="56"/>
-      <c r="P6" s="56"/>
-      <c r="Q6" s="56"/>
-      <c r="R6" s="56"/>
-      <c r="S6" s="56"/>
-      <c r="T6" s="57" t="n">
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="57"/>
+      <c r="P6" s="57"/>
+      <c r="Q6" s="57"/>
+      <c r="R6" s="57"/>
+      <c r="S6" s="57"/>
+      <c r="T6" s="58" t="n">
         <f aca="false">SUM(C6:S6)</f>
         <v>0</v>
       </c>
@@ -8543,28 +8130,28 @@
         <f aca="false">A6+7</f>
         <v>42282</v>
       </c>
-      <c r="B7" s="55" t="str">
+      <c r="B7" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A7,"jj")," au ",TEXT(A7+6,"jj mmm"))</f>
         <v>05 au 11 oct.</v>
       </c>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="56"/>
-      <c r="N7" s="56"/>
-      <c r="O7" s="56"/>
-      <c r="P7" s="56"/>
-      <c r="Q7" s="56"/>
-      <c r="R7" s="56"/>
-      <c r="S7" s="56"/>
-      <c r="T7" s="57" t="n">
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="57"/>
+      <c r="O7" s="57"/>
+      <c r="P7" s="57"/>
+      <c r="Q7" s="57"/>
+      <c r="R7" s="57"/>
+      <c r="S7" s="57"/>
+      <c r="T7" s="58" t="n">
         <f aca="false">SUM(C7:S7)</f>
         <v>0</v>
       </c>
@@ -8574,28 +8161,28 @@
         <f aca="false">A7+7</f>
         <v>42289</v>
       </c>
-      <c r="B8" s="55" t="str">
+      <c r="B8" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A8,"jj")," au ",TEXT(A8+6,"jj mmm"))</f>
         <v>12 au 18 oct.</v>
       </c>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="56"/>
-      <c r="M8" s="56"/>
-      <c r="N8" s="56"/>
-      <c r="O8" s="56"/>
-      <c r="P8" s="56"/>
-      <c r="Q8" s="56"/>
-      <c r="R8" s="56"/>
-      <c r="S8" s="56"/>
-      <c r="T8" s="57" t="n">
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="57"/>
+      <c r="P8" s="57"/>
+      <c r="Q8" s="57"/>
+      <c r="R8" s="57"/>
+      <c r="S8" s="57"/>
+      <c r="T8" s="58" t="n">
         <f aca="false">SUM(C8:S8)</f>
         <v>0</v>
       </c>
@@ -8605,28 +8192,28 @@
         <f aca="false">A8+7</f>
         <v>42296</v>
       </c>
-      <c r="B9" s="55" t="str">
+      <c r="B9" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A9,"jj")," au ",TEXT(A9+6,"jj mmm"))</f>
         <v>19 au 25 oct.</v>
       </c>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="56"/>
-      <c r="M9" s="56"/>
-      <c r="N9" s="56"/>
-      <c r="O9" s="56"/>
-      <c r="P9" s="56"/>
-      <c r="Q9" s="56"/>
-      <c r="R9" s="56"/>
-      <c r="S9" s="56"/>
-      <c r="T9" s="57" t="n">
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="57"/>
+      <c r="O9" s="57"/>
+      <c r="P9" s="57"/>
+      <c r="Q9" s="57"/>
+      <c r="R9" s="57"/>
+      <c r="S9" s="57"/>
+      <c r="T9" s="58" t="n">
         <f aca="false">SUM(C9:S9)</f>
         <v>0</v>
       </c>
@@ -8636,28 +8223,28 @@
         <f aca="false">A9+7</f>
         <v>42303</v>
       </c>
-      <c r="B10" s="55" t="str">
+      <c r="B10" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A10,"jj mmm")," au ",TEXT(A10+6,"jj mmm"))</f>
         <v>26 oct au 01 nov</v>
       </c>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="56"/>
-      <c r="M10" s="56"/>
-      <c r="N10" s="56"/>
-      <c r="O10" s="56"/>
-      <c r="P10" s="56"/>
-      <c r="Q10" s="56"/>
-      <c r="R10" s="56"/>
-      <c r="S10" s="56"/>
-      <c r="T10" s="57" t="n">
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="57"/>
+      <c r="N10" s="57"/>
+      <c r="O10" s="57"/>
+      <c r="P10" s="57"/>
+      <c r="Q10" s="57"/>
+      <c r="R10" s="57"/>
+      <c r="S10" s="57"/>
+      <c r="T10" s="58" t="n">
         <f aca="false">SUM(C10:S10)</f>
         <v>0</v>
       </c>
@@ -8667,28 +8254,28 @@
         <f aca="false">A10+7</f>
         <v>42310</v>
       </c>
-      <c r="B11" s="55" t="str">
+      <c r="B11" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A11,"jj")," au ",TEXT(A11+6,"jj mmm"))</f>
         <v>02 au 08 nov.</v>
       </c>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="56"/>
-      <c r="M11" s="56"/>
-      <c r="N11" s="56"/>
-      <c r="O11" s="56"/>
-      <c r="P11" s="56"/>
-      <c r="Q11" s="56"/>
-      <c r="R11" s="56"/>
-      <c r="S11" s="56"/>
-      <c r="T11" s="57" t="n">
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="57"/>
+      <c r="O11" s="57"/>
+      <c r="P11" s="57"/>
+      <c r="Q11" s="57"/>
+      <c r="R11" s="57"/>
+      <c r="S11" s="57"/>
+      <c r="T11" s="58" t="n">
         <f aca="false">SUM(C11:S11)</f>
         <v>0</v>
       </c>
@@ -8698,28 +8285,28 @@
         <f aca="false">A11+7</f>
         <v>42317</v>
       </c>
-      <c r="B12" s="55" t="str">
+      <c r="B12" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A12,"jj")," au ",TEXT(A12+6,"jj mmm"))</f>
         <v>09 au 15 nov.</v>
       </c>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
-      <c r="N12" s="56"/>
-      <c r="O12" s="56"/>
-      <c r="P12" s="56"/>
-      <c r="Q12" s="56"/>
-      <c r="R12" s="56"/>
-      <c r="S12" s="56"/>
-      <c r="T12" s="57" t="n">
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="57"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="57"/>
+      <c r="P12" s="57"/>
+      <c r="Q12" s="57"/>
+      <c r="R12" s="57"/>
+      <c r="S12" s="57"/>
+      <c r="T12" s="58" t="n">
         <f aca="false">SUM(C12:S12)</f>
         <v>0</v>
       </c>
@@ -8729,28 +8316,28 @@
         <f aca="false">A12+7</f>
         <v>42324</v>
       </c>
-      <c r="B13" s="55" t="str">
+      <c r="B13" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A13,"jj")," au ",TEXT(A13+6,"jj mmm"))</f>
         <v>16 au 22 nov.</v>
       </c>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="56"/>
-      <c r="L13" s="56"/>
-      <c r="M13" s="56"/>
-      <c r="N13" s="56"/>
-      <c r="O13" s="56"/>
-      <c r="P13" s="56"/>
-      <c r="Q13" s="56"/>
-      <c r="R13" s="56"/>
-      <c r="S13" s="56"/>
-      <c r="T13" s="57" t="n">
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="57"/>
+      <c r="M13" s="57"/>
+      <c r="N13" s="57"/>
+      <c r="O13" s="57"/>
+      <c r="P13" s="57"/>
+      <c r="Q13" s="57"/>
+      <c r="R13" s="57"/>
+      <c r="S13" s="57"/>
+      <c r="T13" s="58" t="n">
         <f aca="false">SUM(C13:S13)</f>
         <v>0</v>
       </c>
@@ -8760,28 +8347,28 @@
         <f aca="false">A13+7</f>
         <v>42331</v>
       </c>
-      <c r="B14" s="55" t="str">
+      <c r="B14" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A14,"jj")," au ",TEXT(A14+6,"jj mmm"))</f>
         <v>23 au 29 nov.</v>
       </c>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="56"/>
-      <c r="O14" s="56"/>
-      <c r="P14" s="56"/>
-      <c r="Q14" s="56"/>
-      <c r="R14" s="56"/>
-      <c r="S14" s="56"/>
-      <c r="T14" s="57" t="n">
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="57"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="57"/>
+      <c r="P14" s="57"/>
+      <c r="Q14" s="57"/>
+      <c r="R14" s="57"/>
+      <c r="S14" s="57"/>
+      <c r="T14" s="58" t="n">
         <f aca="false">SUM(C14:S14)</f>
         <v>0</v>
       </c>
@@ -8791,28 +8378,28 @@
         <f aca="false">A14+7</f>
         <v>42338</v>
       </c>
-      <c r="B15" s="55" t="str">
+      <c r="B15" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A15,"jj mmm")," au ",TEXT(A15+6,"jj mmm"))</f>
         <v>30 nov au 06 déc</v>
       </c>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="56"/>
-      <c r="M15" s="56"/>
-      <c r="N15" s="56"/>
-      <c r="O15" s="56"/>
-      <c r="P15" s="56"/>
-      <c r="Q15" s="56"/>
-      <c r="R15" s="56"/>
-      <c r="S15" s="56"/>
-      <c r="T15" s="57" t="n">
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="57"/>
+      <c r="N15" s="57"/>
+      <c r="O15" s="57"/>
+      <c r="P15" s="57"/>
+      <c r="Q15" s="57"/>
+      <c r="R15" s="57"/>
+      <c r="S15" s="57"/>
+      <c r="T15" s="58" t="n">
         <f aca="false">SUM(C15:S15)</f>
         <v>0</v>
       </c>
@@ -8822,28 +8409,28 @@
         <f aca="false">A15+7</f>
         <v>42345</v>
       </c>
-      <c r="B16" s="55" t="str">
+      <c r="B16" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A16,"jj")," au ",TEXT(A16+6,"jj mmm"))</f>
         <v>07 au 13 déc.</v>
       </c>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="56"/>
-      <c r="O16" s="56"/>
-      <c r="P16" s="56"/>
-      <c r="Q16" s="56"/>
-      <c r="R16" s="56"/>
-      <c r="S16" s="56"/>
-      <c r="T16" s="57" t="n">
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="57"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="57"/>
+      <c r="P16" s="57"/>
+      <c r="Q16" s="57"/>
+      <c r="R16" s="57"/>
+      <c r="S16" s="57"/>
+      <c r="T16" s="58" t="n">
         <f aca="false">SUM(C16:S16)</f>
         <v>0</v>
       </c>
@@ -8853,28 +8440,28 @@
         <f aca="false">A16+7</f>
         <v>42352</v>
       </c>
-      <c r="B17" s="55" t="str">
+      <c r="B17" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A17,"jj")," au ",TEXT(A17+6,"jj mmm"))</f>
         <v>14 au 20 déc.</v>
       </c>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="56"/>
-      <c r="L17" s="56"/>
-      <c r="M17" s="56"/>
-      <c r="N17" s="56"/>
-      <c r="O17" s="56"/>
-      <c r="P17" s="56"/>
-      <c r="Q17" s="56"/>
-      <c r="R17" s="56"/>
-      <c r="S17" s="56"/>
-      <c r="T17" s="57" t="n">
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="57"/>
+      <c r="N17" s="57"/>
+      <c r="O17" s="57"/>
+      <c r="P17" s="57"/>
+      <c r="Q17" s="57"/>
+      <c r="R17" s="57"/>
+      <c r="S17" s="57"/>
+      <c r="T17" s="58" t="n">
         <f aca="false">SUM(C17:S17)</f>
         <v>0</v>
       </c>
@@ -8884,28 +8471,28 @@
         <f aca="false">A17+7</f>
         <v>42359</v>
       </c>
-      <c r="B18" s="55" t="str">
+      <c r="B18" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A18,"jj")," au ",TEXT(A18+6,"jj mmm"))</f>
         <v>21 au 27 déc.</v>
       </c>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="56"/>
-      <c r="O18" s="56"/>
-      <c r="P18" s="56"/>
-      <c r="Q18" s="56"/>
-      <c r="R18" s="56"/>
-      <c r="S18" s="56"/>
-      <c r="T18" s="57" t="n">
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="57"/>
+      <c r="M18" s="57"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="57"/>
+      <c r="P18" s="57"/>
+      <c r="Q18" s="57"/>
+      <c r="R18" s="57"/>
+      <c r="S18" s="57"/>
+      <c r="T18" s="58" t="n">
         <f aca="false">SUM(C18:S18)</f>
         <v>0</v>
       </c>
@@ -8915,28 +8502,28 @@
         <f aca="false">A18+7</f>
         <v>42366</v>
       </c>
-      <c r="B19" s="55" t="str">
+      <c r="B19" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A19,"jj mmm")," au ",TEXT(A19+6,"jj mmm"))</f>
         <v>28 déc au 03 janv</v>
       </c>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="56"/>
-      <c r="L19" s="56"/>
-      <c r="M19" s="56"/>
-      <c r="N19" s="56"/>
-      <c r="O19" s="56"/>
-      <c r="P19" s="56"/>
-      <c r="Q19" s="56"/>
-      <c r="R19" s="56"/>
-      <c r="S19" s="56"/>
-      <c r="T19" s="57" t="n">
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="57"/>
+      <c r="N19" s="57"/>
+      <c r="O19" s="57"/>
+      <c r="P19" s="57"/>
+      <c r="Q19" s="57"/>
+      <c r="R19" s="57"/>
+      <c r="S19" s="57"/>
+      <c r="T19" s="58" t="n">
         <f aca="false">SUM(C19:S19)</f>
         <v>0</v>
       </c>
@@ -8946,131 +8533,131 @@
         <f aca="false">A19+7</f>
         <v>42373</v>
       </c>
-      <c r="B20" s="55" t="str">
+      <c r="B20" s="56" t="str">
         <f aca="false">CONCATENATE(TEXT(A20,"jj")," au ",TEXT(A20+6,"jj mmm"))</f>
         <v>04 au 10 janv.</v>
       </c>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56"/>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="56"/>
-      <c r="O20" s="56"/>
-      <c r="P20" s="56"/>
-      <c r="Q20" s="56"/>
-      <c r="R20" s="56"/>
-      <c r="S20" s="56"/>
-      <c r="T20" s="57" t="n">
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="57"/>
+      <c r="M20" s="57"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="57"/>
+      <c r="P20" s="57"/>
+      <c r="Q20" s="57"/>
+      <c r="R20" s="57"/>
+      <c r="S20" s="57"/>
+      <c r="T20" s="58" t="n">
         <f aca="false">SUM(C20:S20)</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="58" t="s">
+      <c r="B21" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="57" t="n">
+      <c r="C21" s="58" t="n">
         <f aca="false">SUM(C3:C20)</f>
         <v>0</v>
       </c>
-      <c r="D21" s="57" t="n">
+      <c r="D21" s="58" t="n">
         <f aca="false">SUM(D3:D20)</f>
         <v>0</v>
       </c>
-      <c r="E21" s="57" t="n">
+      <c r="E21" s="58" t="n">
         <f aca="false">SUM(E3:E20)</f>
         <v>0</v>
       </c>
-      <c r="F21" s="57" t="n">
+      <c r="F21" s="58" t="n">
         <f aca="false">SUM(F3:F20)</f>
         <v>0</v>
       </c>
-      <c r="G21" s="57" t="n">
+      <c r="G21" s="58" t="n">
         <f aca="false">SUM(G3:G20)</f>
         <v>0</v>
       </c>
-      <c r="H21" s="57" t="n">
+      <c r="H21" s="58" t="n">
         <f aca="false">SUM(H3:H20)</f>
         <v>0</v>
       </c>
-      <c r="I21" s="57" t="n">
+      <c r="I21" s="58" t="n">
         <f aca="false">SUM(I3:I20)</f>
         <v>0</v>
       </c>
-      <c r="J21" s="57" t="n">
+      <c r="J21" s="58" t="n">
         <f aca="false">SUM(J3:J20)</f>
         <v>0</v>
       </c>
-      <c r="K21" s="57" t="n">
+      <c r="K21" s="58" t="n">
         <f aca="false">SUM(K3:K20)</f>
         <v>0</v>
       </c>
-      <c r="L21" s="57" t="n">
+      <c r="L21" s="58" t="n">
         <f aca="false">SUM(L3:L20)</f>
         <v>0</v>
       </c>
-      <c r="M21" s="57" t="n">
+      <c r="M21" s="58" t="n">
         <f aca="false">SUM(M3:M20)</f>
         <v>0</v>
       </c>
-      <c r="N21" s="57" t="n">
+      <c r="N21" s="58" t="n">
         <f aca="false">SUM(N3:N20)</f>
         <v>0</v>
       </c>
-      <c r="O21" s="57" t="n">
+      <c r="O21" s="58" t="n">
         <f aca="false">SUM(O3:O20)</f>
         <v>0</v>
       </c>
-      <c r="P21" s="57" t="n">
+      <c r="P21" s="58" t="n">
         <f aca="false">SUM(P3:P20)</f>
         <v>0</v>
       </c>
-      <c r="Q21" s="57" t="n">
+      <c r="Q21" s="58" t="n">
         <f aca="false">SUM(Q3:Q20)</f>
         <v>0</v>
       </c>
-      <c r="R21" s="57" t="n">
+      <c r="R21" s="58" t="n">
         <f aca="false">SUM(R3:R20)</f>
         <v>0</v>
       </c>
-      <c r="S21" s="57" t="n">
+      <c r="S21" s="58" t="n">
         <f aca="false">SUM(S3:S20)</f>
         <v>0</v>
       </c>
-      <c r="T21" s="59" t="n">
+      <c r="T21" s="60" t="n">
         <f aca="false">SUM(T3:T20)</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="49"/>
-      <c r="J23" s="49"/>
-      <c r="K23" s="49"/>
-      <c r="L23" s="49"/>
-      <c r="M23" s="49"/>
-      <c r="N23" s="49"/>
-      <c r="O23" s="49"/>
-      <c r="P23" s="49"/>
-      <c r="Q23" s="49"/>
-      <c r="R23" s="49"/>
-      <c r="S23" s="49"/>
-      <c r="T23" s="49"/>
+        <v>32</v>
+      </c>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="50"/>
+      <c r="M23" s="50"/>
+      <c r="N23" s="50"/>
+      <c r="O23" s="50"/>
+      <c r="P23" s="50"/>
+      <c r="Q23" s="50"/>
+      <c r="R23" s="50"/>
+      <c r="S23" s="50"/>
+      <c r="T23" s="50"/>
     </row>
   </sheetData>
   <sheetProtection sheet="true" password="deee" objects="true" scenarios="true"/>

--- a/Timesheet-Groupe_8.xlsx
+++ b/Timesheet-Groupe_8.xlsx
@@ -30,41 +30,49 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0" vbProcedure="false">Groupe!$B$1:$W$27</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0" vbProcedure="false">Groupe!$B$1:$W$27</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0" vbProcedure="false">Groupe!$B$1:$W$27</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0" vbProcedure="false">Groupe!$B$1:$W$27</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="Z_DEF7657E_CF5E_43E5_870D_F4B63193E461_.wvu.Cols" vbProcedure="false">'Etudiant 1'!$A:$A</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">'Etudiant 1'!$B$1:$T$23</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area_0" vbProcedure="false">'Etudiant 1'!$B$1:$T$23</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area_0_0" vbProcedure="false">'Etudiant 1'!$B$1:$T$23</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area_0_0_0" vbProcedure="false">'Etudiant 1'!$B$1:$T$23</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area_0_0_0_0" vbProcedure="false">'Etudiant 1'!$B$1:$T$23</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="Z_DEF7657E_CF5E_43E5_870D_F4B63193E461_.wvu.Cols" vbProcedure="false">'Etudiant 2'!$A:$A</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area" vbProcedure="false">'Etudiant 2'!$B$1:$T$23</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area_0" vbProcedure="false">'Etudiant 2'!$B$1:$T$23</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area_0_0" vbProcedure="false">'Etudiant 2'!$B$1:$T$23</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area_0_0_0" vbProcedure="false">'Etudiant 2'!$B$1:$T$23</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm.Print_Area_0_0_0_0" vbProcedure="false">'Etudiant 2'!$B$1:$T$23</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="Z_DEF7657E_CF5E_43E5_870D_F4B63193E461_.wvu.Cols" vbProcedure="false">'Etudiant 3'!$A:$A</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area" vbProcedure="false">'Etudiant 3'!$B$1:$T$23</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area_0" vbProcedure="false">'Etudiant 3'!$B$1:$T$23</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area_0_0" vbProcedure="false">'Etudiant 3'!$B$1:$T$23</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area_0_0_0" vbProcedure="false">'Etudiant 3'!$B$1:$T$23</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area_0_0_0_0" vbProcedure="false">'Etudiant 3'!$B$1:$T$23</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="Z_DEF7657E_CF5E_43E5_870D_F4B63193E461_.wvu.Cols" vbProcedure="false">'Etudiant 4'!$A:$A</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm.Print_Area" vbProcedure="false">'Etudiant 4'!$B$1:$T$23</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm.Print_Area_0" vbProcedure="false">'Etudiant 4'!$B$1:$T$23</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm.Print_Area_0_0" vbProcedure="false">'Etudiant 4'!$B$1:$T$23</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm.Print_Area_0_0_0" vbProcedure="false">'Etudiant 4'!$B$1:$T$23</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm.Print_Area_0_0_0_0" vbProcedure="false">'Etudiant 4'!$B$1:$T$23</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="Z_DEF7657E_CF5E_43E5_870D_F4B63193E461_.wvu.Cols" vbProcedure="false">'Etudiant 5'!$A:$A</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm.Print_Area" vbProcedure="false">'Etudiant 5'!$B$1:$T$23</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm.Print_Area_0" vbProcedure="false">'Etudiant 5'!$B$1:$T$23</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm.Print_Area_0_0" vbProcedure="false">'Etudiant 5'!$B$1:$T$23</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm.Print_Area_0_0_0" vbProcedure="false">'Etudiant 5'!$B$1:$T$23</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm.Print_Area_0_0_0_0" vbProcedure="false">'Etudiant 5'!$B$1:$T$23</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="Z_DEF7657E_CF5E_43E5_870D_F4B63193E461_.wvu.Cols" vbProcedure="false">'Etudiant 6'!$A:$A</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area" vbProcedure="false">'Etudiant 6'!$B$1:$T$23</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area_0" vbProcedure="false">'Etudiant 6'!$B$1:$T$23</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area_0_0" vbProcedure="false">'Etudiant 6'!$B$1:$T$23</definedName>
     <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area_0_0_0" vbProcedure="false">'Etudiant 6'!$B$1:$T$23</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area_0_0_0_0" vbProcedure="false">'Etudiant 6'!$B$1:$T$23</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="Z_DEF7657E_CF5E_43E5_870D_F4B63193E461_.wvu.Cols" vbProcedure="false">'Etudiant 7'!$A:$A</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_xlnm.Print_Area" vbProcedure="false">'Etudiant 7'!$B$1:$T$23</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_xlnm.Print_Area_0" vbProcedure="false">'Etudiant 7'!$B$1:$T$23</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_xlnm.Print_Area_0_0" vbProcedure="false">'Etudiant 7'!$B$1:$T$23</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_xlnm.Print_Area_0_0_0" vbProcedure="false">'Etudiant 7'!$B$1:$T$23</definedName>
+    <definedName function="false" hidden="false" localSheetId="7" name="_xlnm.Print_Area_0_0_0_0" vbProcedure="false">'Etudiant 7'!$B$1:$T$23</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
@@ -166,7 +174,7 @@
     <t>Nom du produit :</t>
   </si>
   <si>
-    <t>MOLPE – Moteur d'Organisation et Listing de Partage d'Evenementiel</t>
+    <t>MOLPE – Moteur d'Organisation, Listing et Partage d'Evenementiel</t>
   </si>
   <si>
     <t>Nom :</t>
@@ -263,8 +271,8 @@
     </font>
     <font>
       <sz val="12"/>
-      <name val=""/>
-      <family val="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -683,154 +691,454 @@
   </cellStyles>
   <dxfs count="50">
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <font>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </font>
     </dxf>
   </dxfs>
   <colors>
@@ -904,7 +1212,7 @@
   <dimension ref="A1:W27"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
+      <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1229,7 +1537,7 @@
       </c>
       <c r="W5" s="29"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="21" t="n">
         <f aca="false">A5+7</f>
         <v>42268</v>
@@ -1238,7 +1546,9 @@
         <f aca="false">CONCATENATE(TEXT(A6,"jj")," au ",TEXT(A6+6,"jj mmm"))</f>
         <v>21 au 27 sept.</v>
       </c>
-      <c r="C6" s="17"/>
+      <c r="C6" s="17" t="n">
+        <v>2.25</v>
+      </c>
       <c r="D6" s="23" t="n">
         <f aca="false">'Etudiant 1'!C5+'Etudiant 2'!C5+'Etudiant 3'!C5+'Etudiant 4'!C5+'Etudiant 5'!C5+'Etudiant 6'!C5+'Etudiant 7'!C5</f>
         <v>0</v>
@@ -1313,7 +1623,7 @@
       </c>
       <c r="V6" s="28" t="str">
         <f aca="false">CONCATENATE(IF(U6&lt;C6,"-",""),TEXT(IF(U6&lt;C6,C6-U6,U6-C6),"[h]:mm;@"))</f>
-        <v>0:00</v>
+        <v>-54:00</v>
       </c>
       <c r="W6" s="29"/>
     </row>
@@ -2643,7 +2953,7 @@
       </c>
       <c r="C22" s="36" t="n">
         <f aca="false">SUM(C4:C21)</f>
-        <v>2.5</v>
+        <v>4.75</v>
       </c>
       <c r="D22" s="37" t="n">
         <f aca="false">SUM(D4:D21)</f>
